--- a/test-faster.xlsx
+++ b/test-faster.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouhe\Desktop\研究室\graph-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouhe\Documents\Python Scripts\graph-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6F5B4E-F4FB-4850-9462-94AEFBA4D293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D0E3A7-7E3A-4942-A290-010595B32265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test-faster" sheetId="1" r:id="rId1"/>
+    <sheet name="test-faster (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t xml:space="preserve">Time       </t>
   </si>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -982,10 +983,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -9866,4 +9867,8896 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FD6104-C80E-43DA-BF30-C0B6E318A030}">
+  <dimension ref="A1:D634"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="G620" sqref="G620"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C2">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1.2E-10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C3">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2.4E-10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C4">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4.8E-10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C5">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>9.5999999999999999E-10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C6">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1.92E-9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C7">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>2.9199999999999998E-9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C8">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>3.9199999999999997E-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C9">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4.9200000000000004E-9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C10">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>5.9200000000000002E-9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C11">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>6.9200000000000001E-9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C12">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>7.9200000000000008E-9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C13">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>8.9199999999999998E-9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C14">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>9.9200000000000005E-9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C15">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1.09E-8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C16">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C17">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>1.29E-8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C18">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>1.39E-8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C19">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>1.4899999999999999E-8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C20">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>1.59E-8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C21">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>1.6899999999999999E-8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C22">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1.7900000000000001E-8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C23">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>1.89E-8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C24">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>1.99E-8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C25">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>2.0899999999999999E-8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C26">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>2.1900000000000001E-8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C27">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>2.29E-8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C28">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>2.3899999999999999E-8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C29">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>2.4900000000000001E-8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C30">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>2.59E-8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C31">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>2.6899999999999999E-8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C32">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>2.7899999999999998E-8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C33">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>2.8900000000000001E-8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C34">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>2.9900000000000003E-8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C35">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>3.0899999999999999E-8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C36">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>3.1900000000000001E-8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C37">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>3.2899999999999997E-8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C38">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>3.3899999999999999E-8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C39">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>3.4900000000000001E-8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C40">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>3.5899999999999997E-8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C41">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>3.69E-8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C42">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>3.7900000000000002E-8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C43">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>3.8899999999999998E-8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C44">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>3.99E-8</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C45">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>4.0900000000000002E-8</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C46">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>4.1899999999999998E-8</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C47">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>4.29E-8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C48">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>4.3900000000000003E-8</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C49">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>4.4899999999999998E-8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C50">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C51">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>4.6900000000000003E-8</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C52">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>4.7899999999999999E-8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C53">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>4.8900000000000001E-8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C54">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>4.9899999999999997E-8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C55">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="C56">
+        <v>603.71200899999997</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-8.6500000000000002E-5</v>
+      </c>
+      <c r="C57">
+        <v>603.8250683</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B58">
+        <v>-4.3081E-4</v>
+      </c>
+      <c r="C58">
+        <v>604.04655639999999</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B59">
+        <v>-2.1001100000000001E-3</v>
+      </c>
+      <c r="C59">
+        <v>604.46251549999999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B60">
+        <v>-4.0583499999999996E-3</v>
+      </c>
+      <c r="C60">
+        <v>604.73909260000005</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>5.0099999999999999E-8</v>
+      </c>
+      <c r="B61">
+        <v>-7.9759199999999992E-3</v>
+      </c>
+      <c r="C61">
+        <v>605.11425450000002</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>5.0099999999999999E-8</v>
+      </c>
+      <c r="B62">
+        <v>-1.462314E-2</v>
+      </c>
+      <c r="C62">
+        <v>605.54505449999999</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>5.0099999999999999E-8</v>
+      </c>
+      <c r="B63">
+        <v>-2.7308369999999998E-2</v>
+      </c>
+      <c r="C63">
+        <v>606.09166600000003</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>5.02E-8</v>
+      </c>
+      <c r="B64">
+        <v>-5.0917150000000001E-2</v>
+      </c>
+      <c r="C64">
+        <v>606.73316990000001</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>5.03E-8</v>
+      </c>
+      <c r="B65">
+        <v>-9.5539579999999999E-2</v>
+      </c>
+      <c r="C65">
+        <v>607.43559259999995</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>5.0400000000000001E-8</v>
+      </c>
+      <c r="B66">
+        <v>-0.17843531000000001</v>
+      </c>
+      <c r="C66">
+        <v>608.07700869999996</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>5.0600000000000003E-8</v>
+      </c>
+      <c r="B67">
+        <v>-0.32980677000000003</v>
+      </c>
+      <c r="C67">
+        <v>608.44105249999996</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>5.0899999999999999E-8</v>
+      </c>
+      <c r="B68">
+        <v>-0.58612562999999995</v>
+      </c>
+      <c r="C68">
+        <v>608.19437640000001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>5.1E-8</v>
+      </c>
+      <c r="B69">
+        <v>-0.64602329999999997</v>
+      </c>
+      <c r="C69">
+        <v>608.04455069999995</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>5.1100000000000001E-8</v>
+      </c>
+      <c r="B70">
+        <v>-0.67293698999999996</v>
+      </c>
+      <c r="C70">
+        <v>606.90606360000004</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>5.1100000000000001E-8</v>
+      </c>
+      <c r="B71">
+        <v>-0.70438752000000004</v>
+      </c>
+      <c r="C71">
+        <v>605.40302020000001</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>5.1300000000000003E-8</v>
+      </c>
+      <c r="B72">
+        <v>-0.72239363000000001</v>
+      </c>
+      <c r="C72">
+        <v>603.48977500000001</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>5.1599999999999999E-8</v>
+      </c>
+      <c r="B73">
+        <v>-0.66370423000000001</v>
+      </c>
+      <c r="C73">
+        <v>601.79352559999995</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>5.2000000000000002E-8</v>
+      </c>
+      <c r="B74">
+        <v>-0.51529009000000003</v>
+      </c>
+      <c r="C74">
+        <v>601.12835919999998</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>5.25E-8</v>
+      </c>
+      <c r="B75">
+        <v>-0.27852440000000001</v>
+      </c>
+      <c r="C75">
+        <v>600.79941259999998</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>5.32E-8</v>
+      </c>
+      <c r="B76">
+        <v>3.7227962000000003E-2</v>
+      </c>
+      <c r="C76">
+        <v>600.84442550000006</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>5.4E-8</v>
+      </c>
+      <c r="B77">
+        <v>0.37353030100000001</v>
+      </c>
+      <c r="C77">
+        <v>601.48500560000002</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>5.5000000000000003E-8</v>
+      </c>
+      <c r="B78">
+        <v>0.62432657300000005</v>
+      </c>
+      <c r="C78">
+        <v>602.86151400000006</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>5.5999999999999999E-8</v>
+      </c>
+      <c r="B79">
+        <v>0.63579064500000004</v>
+      </c>
+      <c r="C79">
+        <v>604.33924769999999</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>5.7000000000000001E-8</v>
+      </c>
+      <c r="B80">
+        <v>0.44459176700000003</v>
+      </c>
+      <c r="C80">
+        <v>605.30515149999997</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>5.8000000000000003E-8</v>
+      </c>
+      <c r="B81">
+        <v>0.17636993000000001</v>
+      </c>
+      <c r="C81">
+        <v>605.2951223</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>5.8999999999999999E-8</v>
+      </c>
+      <c r="B82">
+        <v>6.155855E-3</v>
+      </c>
+      <c r="C82">
+        <v>604.1589745</v>
+      </c>
+      <c r="D82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>5.9300000000000002E-8</v>
+      </c>
+      <c r="B83">
+        <v>-1.4104899999999999E-3</v>
+      </c>
+      <c r="C83">
+        <v>603.53339930000004</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>5.9599999999999998E-8</v>
+      </c>
+      <c r="B84">
+        <v>1.934835E-2</v>
+      </c>
+      <c r="C84">
+        <v>602.96629540000004</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>5.99E-8</v>
+      </c>
+      <c r="B85">
+        <v>9.0610105999999996E-2</v>
+      </c>
+      <c r="C85">
+        <v>602.12354649999997</v>
+      </c>
+      <c r="D85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>6.06E-8</v>
+      </c>
+      <c r="B86">
+        <v>0.38090582200000001</v>
+      </c>
+      <c r="C86">
+        <v>600.39467999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>6.1599999999999996E-8</v>
+      </c>
+      <c r="B87">
+        <v>1.1041451309999999</v>
+      </c>
+      <c r="C87">
+        <v>598.24997199999996</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>6.2600000000000005E-8</v>
+      </c>
+      <c r="B88">
+        <v>2.0989229059999999</v>
+      </c>
+      <c r="C88">
+        <v>597.01456159999998</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>6.36E-8</v>
+      </c>
+      <c r="B89">
+        <v>3.1877037499999998</v>
+      </c>
+      <c r="C89">
+        <v>596.98214770000004</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>6.4599999999999996E-8</v>
+      </c>
+      <c r="B90">
+        <v>4.1946796290000004</v>
+      </c>
+      <c r="C90">
+        <v>597.85551359999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>6.5600000000000005E-8</v>
+      </c>
+      <c r="B91">
+        <v>5.0315702529999999</v>
+      </c>
+      <c r="C91">
+        <v>598.89666750000004</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>6.6600000000000001E-8</v>
+      </c>
+      <c r="B92">
+        <v>5.7349356189999998</v>
+      </c>
+      <c r="C92">
+        <v>599.35181799999998</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>6.7599999999999997E-8</v>
+      </c>
+      <c r="B93">
+        <v>6.429037976</v>
+      </c>
+      <c r="C93">
+        <v>598.9137733</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>6.8600000000000005E-8</v>
+      </c>
+      <c r="B94">
+        <v>7.2363356599999999</v>
+      </c>
+      <c r="C94">
+        <v>597.89003720000005</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>6.9600000000000001E-8</v>
+      </c>
+      <c r="B95">
+        <v>8.1979649160000001</v>
+      </c>
+      <c r="C95">
+        <v>596.94118070000002</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>7.0599999999999997E-8</v>
+      </c>
+      <c r="B96">
+        <v>9.2563929550000008</v>
+      </c>
+      <c r="C96">
+        <v>596.59056099999998</v>
+      </c>
+      <c r="D96" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>7.1600000000000006E-8</v>
+      </c>
+      <c r="B97">
+        <v>10.30698368</v>
+      </c>
+      <c r="C97">
+        <v>596.89107230000002</v>
+      </c>
+      <c r="D97" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>7.2600000000000002E-8</v>
+      </c>
+      <c r="B98">
+        <v>11.27364609</v>
+      </c>
+      <c r="C98">
+        <v>597.45969500000001</v>
+      </c>
+      <c r="D98" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>7.3599999999999997E-8</v>
+      </c>
+      <c r="B99">
+        <v>12.15343762</v>
+      </c>
+      <c r="C99">
+        <v>597.80711880000001</v>
+      </c>
+      <c r="D99" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>7.4600000000000006E-8</v>
+      </c>
+      <c r="B100">
+        <v>13.004074510000001</v>
+      </c>
+      <c r="C100">
+        <v>597.69102829999997</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>7.5600000000000002E-8</v>
+      </c>
+      <c r="B101">
+        <v>13.891714909999999</v>
+      </c>
+      <c r="C101">
+        <v>597.24398880000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>7.6599999999999998E-8</v>
+      </c>
+      <c r="B102">
+        <v>14.842507230000001</v>
+      </c>
+      <c r="C102">
+        <v>596.8072214</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>7.7599999999999993E-8</v>
+      </c>
+      <c r="B103">
+        <v>15.83229197</v>
+      </c>
+      <c r="C103">
+        <v>596.64301290000003</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>7.8600000000000002E-8</v>
+      </c>
+      <c r="B104">
+        <v>16.814702910000001</v>
+      </c>
+      <c r="C104">
+        <v>596.76036209999995</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>7.9599999999999998E-8</v>
+      </c>
+      <c r="B105">
+        <v>17.75928257</v>
+      </c>
+      <c r="C105">
+        <v>596.96463670000003</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>8.0599999999999994E-8</v>
+      </c>
+      <c r="B106">
+        <v>18.669478829999999</v>
+      </c>
+      <c r="C106">
+        <v>597.04547170000001</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>8.1600000000000003E-8</v>
+      </c>
+      <c r="B107">
+        <v>19.571615529999999</v>
+      </c>
+      <c r="C107">
+        <v>596.93668390000005</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>8.2599999999999998E-8</v>
+      </c>
+      <c r="B108">
+        <v>20.489520989999999</v>
+      </c>
+      <c r="C108">
+        <v>596.73094979999996</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>8.3599999999999994E-8</v>
+      </c>
+      <c r="B109">
+        <v>21.42719812</v>
+      </c>
+      <c r="C109">
+        <v>596.57156229999998</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>8.4600000000000003E-8</v>
+      </c>
+      <c r="B110">
+        <v>22.370768309999999</v>
+      </c>
+      <c r="C110">
+        <v>596.53046170000005</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>8.5599999999999999E-8</v>
+      </c>
+      <c r="B111">
+        <v>23.303504530000001</v>
+      </c>
+      <c r="C111">
+        <v>596.57198140000003</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>8.6599999999999995E-8</v>
+      </c>
+      <c r="B112">
+        <v>24.219156529999999</v>
+      </c>
+      <c r="C112">
+        <v>596.60764359999996</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>8.7600000000000004E-8</v>
+      </c>
+      <c r="B113">
+        <v>25.12375741</v>
+      </c>
+      <c r="C113">
+        <v>596.57853320000004</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>8.8599999999999999E-8</v>
+      </c>
+      <c r="B114">
+        <v>26.027495049999999</v>
+      </c>
+      <c r="C114">
+        <v>596.49257020000005</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>8.9599999999999995E-8</v>
+      </c>
+      <c r="B115">
+        <v>26.935584890000001</v>
+      </c>
+      <c r="C115">
+        <v>596.40041010000004</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>9.0600000000000004E-8</v>
+      </c>
+      <c r="B116">
+        <v>27.845538439999999</v>
+      </c>
+      <c r="C116">
+        <v>596.34361999999999</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>9.16E-8</v>
+      </c>
+      <c r="B117">
+        <v>28.751234319999998</v>
+      </c>
+      <c r="C117">
+        <v>596.32478619999995</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>9.2599999999999995E-8</v>
+      </c>
+      <c r="B118">
+        <v>29.648701899999999</v>
+      </c>
+      <c r="C118">
+        <v>596.31617449999999</v>
+      </c>
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>9.3600000000000004E-8</v>
+      </c>
+      <c r="B119">
+        <v>30.53856631</v>
+      </c>
+      <c r="C119">
+        <v>596.29055530000005</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>9.46E-8</v>
+      </c>
+      <c r="B120">
+        <v>31.424153839999999</v>
+      </c>
+      <c r="C120">
+        <v>596.24240269999996</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>9.5599999999999996E-8</v>
+      </c>
+      <c r="B121">
+        <v>32.308008649999998</v>
+      </c>
+      <c r="C121">
+        <v>596.18612640000003</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>9.6600000000000005E-8</v>
+      </c>
+      <c r="B122">
+        <v>33.190061610000001</v>
+      </c>
+      <c r="C122">
+        <v>596.13837720000004</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>9.76E-8</v>
+      </c>
+      <c r="B123">
+        <v>34.068440639999999</v>
+      </c>
+      <c r="C123">
+        <v>596.10410660000002</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>9.8599999999999996E-8</v>
+      </c>
+      <c r="B124">
+        <v>34.941489679999997</v>
+      </c>
+      <c r="C124">
+        <v>596.07578109999997</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>9.9600000000000005E-8</v>
+      </c>
+      <c r="B125">
+        <v>35.809007559999998</v>
+      </c>
+      <c r="C125">
+        <v>596.04324359999998</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>1.01E-7</v>
+      </c>
+      <c r="B126">
+        <v>36.671933510000002</v>
+      </c>
+      <c r="C126">
+        <v>596.00232570000003</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>1.02E-7</v>
+      </c>
+      <c r="B127">
+        <v>37.531196139999999</v>
+      </c>
+      <c r="C127">
+        <v>595.95609950000005</v>
+      </c>
+      <c r="D127" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>1.03E-7</v>
+      </c>
+      <c r="B128">
+        <v>38.386897079999997</v>
+      </c>
+      <c r="C128">
+        <v>595.90901199999996</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>1.04E-7</v>
+      </c>
+      <c r="B129">
+        <v>39.238294009999997</v>
+      </c>
+      <c r="C129">
+        <v>595.85990719999995</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>1.05E-7</v>
+      </c>
+      <c r="B130">
+        <v>40.081903240000003</v>
+      </c>
+      <c r="C130">
+        <v>595.76461930000005</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>1.05E-7</v>
+      </c>
+      <c r="B131">
+        <v>40.629689329999998</v>
+      </c>
+      <c r="C131">
+        <v>595.41758370000002</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>1.06E-7</v>
+      </c>
+      <c r="B132">
+        <v>41.128286230000001</v>
+      </c>
+      <c r="C132">
+        <v>593.83530610000003</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>1.0700000000000001E-7</v>
+      </c>
+      <c r="B133">
+        <v>41.445821729999999</v>
+      </c>
+      <c r="C133">
+        <v>589.82302990000005</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>1.08E-7</v>
+      </c>
+      <c r="B134">
+        <v>41.585445900000003</v>
+      </c>
+      <c r="C134">
+        <v>578.51075360000004</v>
+      </c>
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>1.09E-7</v>
+      </c>
+      <c r="B135">
+        <v>41.559280029999996</v>
+      </c>
+      <c r="C135">
+        <v>561.20112510000001</v>
+      </c>
+      <c r="D135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>1.1000000000000001E-7</v>
+      </c>
+      <c r="B136">
+        <v>41.618837339999999</v>
+      </c>
+      <c r="C136">
+        <v>539.82826480000006</v>
+      </c>
+      <c r="D136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>1.11E-7</v>
+      </c>
+      <c r="B137">
+        <v>41.784103590000001</v>
+      </c>
+      <c r="C137">
+        <v>515.58187480000004</v>
+      </c>
+      <c r="D137" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>1.12E-7</v>
+      </c>
+      <c r="B138">
+        <v>41.891830200000001</v>
+      </c>
+      <c r="C138">
+        <v>488.56690700000001</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>1.1300000000000001E-7</v>
+      </c>
+      <c r="B139">
+        <v>41.870713899999998</v>
+      </c>
+      <c r="C139">
+        <v>459.09397890000002</v>
+      </c>
+      <c r="D139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>1.14E-7</v>
+      </c>
+      <c r="B140">
+        <v>41.818912400000002</v>
+      </c>
+      <c r="C140">
+        <v>428.1151481</v>
+      </c>
+      <c r="D140" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>1.15E-7</v>
+      </c>
+      <c r="B141">
+        <v>41.829508689999997</v>
+      </c>
+      <c r="C141">
+        <v>396.44175259999997</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>1.1600000000000001E-7</v>
+      </c>
+      <c r="B142">
+        <v>41.869761699999998</v>
+      </c>
+      <c r="C142">
+        <v>364.27319920000002</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>1.17E-7</v>
+      </c>
+      <c r="B143">
+        <v>41.862974989999998</v>
+      </c>
+      <c r="C143">
+        <v>331.67625800000002</v>
+      </c>
+      <c r="D143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>1.18E-7</v>
+      </c>
+      <c r="B144">
+        <v>41.802557319999998</v>
+      </c>
+      <c r="C144">
+        <v>299.06621330000002</v>
+      </c>
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>1.1899999999999999E-7</v>
+      </c>
+      <c r="B145">
+        <v>41.737352710000003</v>
+      </c>
+      <c r="C145">
+        <v>267.01412090000002</v>
+      </c>
+      <c r="D145" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="B146">
+        <v>41.689953269999997</v>
+      </c>
+      <c r="C146">
+        <v>235.86044580000001</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>1.2100000000000001E-7</v>
+      </c>
+      <c r="B147">
+        <v>41.636341659999999</v>
+      </c>
+      <c r="C147">
+        <v>205.7396746</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>1.2200000000000001E-7</v>
+      </c>
+      <c r="B148">
+        <v>41.55142669</v>
+      </c>
+      <c r="C148">
+        <v>176.86289690000001</v>
+      </c>
+      <c r="D148" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>1.23E-7</v>
+      </c>
+      <c r="B149">
+        <v>41.439989740000001</v>
+      </c>
+      <c r="C149">
+        <v>149.59965539999999</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>1.24E-7</v>
+      </c>
+      <c r="B150">
+        <v>41.320544529999999</v>
+      </c>
+      <c r="C150">
+        <v>124.311194</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>1.2499999999999999E-7</v>
+      </c>
+      <c r="B151">
+        <v>41.199216630000002</v>
+      </c>
+      <c r="C151">
+        <v>101.22905</v>
+      </c>
+      <c r="D151" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>1.2599999999999999E-7</v>
+      </c>
+      <c r="B152">
+        <v>41.06806564</v>
+      </c>
+      <c r="C152">
+        <v>80.514677059999997</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>1.2700000000000001E-7</v>
+      </c>
+      <c r="B153">
+        <v>40.920270590000001</v>
+      </c>
+      <c r="C153">
+        <v>62.360887300000002</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>1.2800000000000001E-7</v>
+      </c>
+      <c r="B154">
+        <v>40.75897793</v>
+      </c>
+      <c r="C154">
+        <v>46.985081710000003</v>
+      </c>
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>1.29E-7</v>
+      </c>
+      <c r="B155">
+        <v>40.593676279999997</v>
+      </c>
+      <c r="C155">
+        <v>34.534152679999998</v>
+      </c>
+      <c r="D155" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>1.3E-7</v>
+      </c>
+      <c r="B156">
+        <v>40.434149210000001</v>
+      </c>
+      <c r="C156">
+        <v>24.99755613</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>1.31E-7</v>
+      </c>
+      <c r="B157">
+        <v>40.292854429999998</v>
+      </c>
+      <c r="C157">
+        <v>18.178088049999999</v>
+      </c>
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>1.3199999999999999E-7</v>
+      </c>
+      <c r="B158">
+        <v>40.156402030000002</v>
+      </c>
+      <c r="C158">
+        <v>14.085502310000001</v>
+      </c>
+      <c r="D158" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="B159">
+        <v>40.032405650000001</v>
+      </c>
+      <c r="C159">
+        <v>12.165528309999999</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="B160">
+        <v>39.984265290000003</v>
+      </c>
+      <c r="C160">
+        <v>11.779446399999999</v>
+      </c>
+      <c r="D160" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>1.3400000000000001E-7</v>
+      </c>
+      <c r="B161">
+        <v>39.96190996</v>
+      </c>
+      <c r="C161">
+        <v>11.83059246</v>
+      </c>
+      <c r="D161" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>1.35E-7</v>
+      </c>
+      <c r="B162">
+        <v>39.958703149999998</v>
+      </c>
+      <c r="C162">
+        <v>12.19025849</v>
+      </c>
+      <c r="D162" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>1.36E-7</v>
+      </c>
+      <c r="B163">
+        <v>39.976373520000003</v>
+      </c>
+      <c r="C163">
+        <v>12.728731509999999</v>
+      </c>
+      <c r="D163" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>1.37E-7</v>
+      </c>
+      <c r="B164">
+        <v>39.992294559999998</v>
+      </c>
+      <c r="C164">
+        <v>13.095864799999999</v>
+      </c>
+      <c r="D164" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>1.3799999999999999E-7</v>
+      </c>
+      <c r="B165">
+        <v>39.995077989999999</v>
+      </c>
+      <c r="C165">
+        <v>13.29024345</v>
+      </c>
+      <c r="D165" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>1.3899999999999999E-7</v>
+      </c>
+      <c r="B166">
+        <v>39.991480180000003</v>
+      </c>
+      <c r="C166">
+        <v>13.4121408</v>
+      </c>
+      <c r="D166" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>1.4000000000000001E-7</v>
+      </c>
+      <c r="B167">
+        <v>39.992467529999999</v>
+      </c>
+      <c r="C167">
+        <v>13.506429969999999</v>
+      </c>
+      <c r="D167" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>1.4100000000000001E-7</v>
+      </c>
+      <c r="B168">
+        <v>40.000668769999997</v>
+      </c>
+      <c r="C168">
+        <v>13.53616976</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>1.42E-7</v>
+      </c>
+      <c r="B169">
+        <v>40.01001625</v>
+      </c>
+      <c r="C169">
+        <v>13.45735912</v>
+      </c>
+      <c r="D169" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>1.43E-7</v>
+      </c>
+      <c r="B170">
+        <v>40.013908790000002</v>
+      </c>
+      <c r="C170">
+        <v>13.28329813</v>
+      </c>
+      <c r="D170" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>1.4399999999999999E-7</v>
+      </c>
+      <c r="B171">
+        <v>40.011694210000002</v>
+      </c>
+      <c r="C171">
+        <v>13.07529295</v>
+      </c>
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>1.4499999999999999E-7</v>
+      </c>
+      <c r="B172">
+        <v>40.007890400000001</v>
+      </c>
+      <c r="C172">
+        <v>12.88700892</v>
+      </c>
+      <c r="D172" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>1.4600000000000001E-7</v>
+      </c>
+      <c r="B173">
+        <v>40.006840080000003</v>
+      </c>
+      <c r="C173">
+        <v>12.72683696</v>
+      </c>
+      <c r="D173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>1.4700000000000001E-7</v>
+      </c>
+      <c r="B174">
+        <v>40.00894538</v>
+      </c>
+      <c r="C174">
+        <v>12.56858795</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>1.48E-7</v>
+      </c>
+      <c r="B175">
+        <v>40.011489760000003</v>
+      </c>
+      <c r="C175">
+        <v>12.3885246</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>1.49E-7</v>
+      </c>
+      <c r="B176">
+        <v>40.012036029999997</v>
+      </c>
+      <c r="C176">
+        <v>12.18837533</v>
+      </c>
+      <c r="D176" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="B177">
+        <v>40.010602009999999</v>
+      </c>
+      <c r="C177">
+        <v>11.987889040000001</v>
+      </c>
+      <c r="D177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>1.5099999999999999E-7</v>
+      </c>
+      <c r="B178">
+        <v>40.00898136</v>
+      </c>
+      <c r="C178">
+        <v>11.80248604</v>
+      </c>
+      <c r="D178" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>1.5200000000000001E-7</v>
+      </c>
+      <c r="B179">
+        <v>40.008627879999999</v>
+      </c>
+      <c r="C179">
+        <v>11.63077539</v>
+      </c>
+      <c r="D179" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>1.5300000000000001E-7</v>
+      </c>
+      <c r="B180">
+        <v>40.009431720000002</v>
+      </c>
+      <c r="C180">
+        <v>11.460671509999999</v>
+      </c>
+      <c r="D180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>1.54E-7</v>
+      </c>
+      <c r="B181">
+        <v>40.010255890000003</v>
+      </c>
+      <c r="C181">
+        <v>11.283481930000001</v>
+      </c>
+      <c r="D181" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>1.55E-7</v>
+      </c>
+      <c r="B182">
+        <v>40.010257070000002</v>
+      </c>
+      <c r="C182">
+        <v>11.100949870000001</v>
+      </c>
+      <c r="D182" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>1.5599999999999999E-7</v>
+      </c>
+      <c r="B183">
+        <v>40.009572239999997</v>
+      </c>
+      <c r="C183">
+        <v>10.92083012</v>
+      </c>
+      <c r="D183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>1.5699999999999999E-7</v>
+      </c>
+      <c r="B184">
+        <v>40.008922699999999</v>
+      </c>
+      <c r="C184">
+        <v>10.748202859999999</v>
+      </c>
+      <c r="D184" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>1.5800000000000001E-7</v>
+      </c>
+      <c r="B185">
+        <v>40.008796179999997</v>
+      </c>
+      <c r="C185">
+        <v>10.58162686</v>
+      </c>
+      <c r="D185" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>1.5900000000000001E-7</v>
+      </c>
+      <c r="B186">
+        <v>40.009067739999999</v>
+      </c>
+      <c r="C186">
+        <v>10.41628916</v>
+      </c>
+      <c r="D186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>1.6E-7</v>
+      </c>
+      <c r="B187">
+        <v>40.009282800000001</v>
+      </c>
+      <c r="C187">
+        <v>10.24935587</v>
+      </c>
+      <c r="D187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>1.61E-7</v>
+      </c>
+      <c r="B188">
+        <v>40.009161550000002</v>
+      </c>
+      <c r="C188">
+        <v>10.082043150000001</v>
+      </c>
+      <c r="D188" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>1.6199999999999999E-7</v>
+      </c>
+      <c r="B189">
+        <v>40.008805000000002</v>
+      </c>
+      <c r="C189">
+        <v>9.9174337640000001</v>
+      </c>
+      <c r="D189" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>1.6299999999999999E-7</v>
+      </c>
+      <c r="B190">
+        <v>40.008498029999998</v>
+      </c>
+      <c r="C190">
+        <v>9.7571976730000003</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>1.6400000000000001E-7</v>
+      </c>
+      <c r="B191">
+        <v>40.008399699999998</v>
+      </c>
+      <c r="C191">
+        <v>9.6005028590000006</v>
+      </c>
+      <c r="D191" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>1.6500000000000001E-7</v>
+      </c>
+      <c r="B192">
+        <v>40.008433480000001</v>
+      </c>
+      <c r="C192">
+        <v>9.4455006309999998</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>1.66E-7</v>
+      </c>
+      <c r="B193">
+        <v>40.008421779999999</v>
+      </c>
+      <c r="C193">
+        <v>9.2913257359999992</v>
+      </c>
+      <c r="D193" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>1.67E-7</v>
+      </c>
+      <c r="B194">
+        <v>40.008275179999998</v>
+      </c>
+      <c r="C194">
+        <v>9.1386504029999998</v>
+      </c>
+      <c r="D194" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>1.68E-7</v>
+      </c>
+      <c r="B195">
+        <v>40.008049409999998</v>
+      </c>
+      <c r="C195">
+        <v>8.9886877970000008</v>
+      </c>
+      <c r="D195" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>1.6899999999999999E-7</v>
+      </c>
+      <c r="B196">
+        <v>40.007854819999999</v>
+      </c>
+      <c r="C196">
+        <v>8.8419768209999994</v>
+      </c>
+      <c r="D196" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>1.6999999999999999E-7</v>
+      </c>
+      <c r="B197">
+        <v>40.007741250000002</v>
+      </c>
+      <c r="C197">
+        <v>8.6981125499999994</v>
+      </c>
+      <c r="D197" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>1.6999999999999999E-7</v>
+      </c>
+      <c r="B198">
+        <v>40.007717970000002</v>
+      </c>
+      <c r="C198">
+        <v>8.6496496159999996</v>
+      </c>
+      <c r="D198" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>1.6999999999999999E-7</v>
+      </c>
+      <c r="B199">
+        <v>40.013336010000003</v>
+      </c>
+      <c r="C199">
+        <v>8.287333383</v>
+      </c>
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>1.6999999999999999E-7</v>
+      </c>
+      <c r="B200">
+        <v>40.031848779999997</v>
+      </c>
+      <c r="C200">
+        <v>7.7668757949999998</v>
+      </c>
+      <c r="D200" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B201">
+        <v>40.084624089999998</v>
+      </c>
+      <c r="C201">
+        <v>7.3004821409999998</v>
+      </c>
+      <c r="D201" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B202">
+        <v>40.118164929999999</v>
+      </c>
+      <c r="C202">
+        <v>7.0237348849999997</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B203">
+        <v>40.120213010000001</v>
+      </c>
+      <c r="C203">
+        <v>7.2250761109999999</v>
+      </c>
+      <c r="D203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B204">
+        <v>40.116370430000003</v>
+      </c>
+      <c r="C204">
+        <v>7.4645388690000001</v>
+      </c>
+      <c r="D204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>1.72E-7</v>
+      </c>
+      <c r="B205">
+        <v>40.079381259999998</v>
+      </c>
+      <c r="C205">
+        <v>7.4001136729999999</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>1.72E-7</v>
+      </c>
+      <c r="B206">
+        <v>39.980087869999998</v>
+      </c>
+      <c r="C206">
+        <v>7.0154741180000002</v>
+      </c>
+      <c r="D206" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>1.73E-7</v>
+      </c>
+      <c r="B207">
+        <v>39.895957379999999</v>
+      </c>
+      <c r="C207">
+        <v>7.339374791</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>1.74E-7</v>
+      </c>
+      <c r="B208">
+        <v>39.933675170000001</v>
+      </c>
+      <c r="C208">
+        <v>8.2600116729999993</v>
+      </c>
+      <c r="D208" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>1.7499999999999999E-7</v>
+      </c>
+      <c r="B209">
+        <v>40.022584979999998</v>
+      </c>
+      <c r="C209">
+        <v>8.6922532290000003</v>
+      </c>
+      <c r="D209" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>1.7599999999999999E-7</v>
+      </c>
+      <c r="B210">
+        <v>40.06772264</v>
+      </c>
+      <c r="C210">
+        <v>8.3556006020000009</v>
+      </c>
+      <c r="D210" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>1.7700000000000001E-7</v>
+      </c>
+      <c r="B211">
+        <v>40.040215910000001</v>
+      </c>
+      <c r="C211">
+        <v>7.741035997</v>
+      </c>
+      <c r="D211" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>1.7800000000000001E-7</v>
+      </c>
+      <c r="B212">
+        <v>39.985360389999997</v>
+      </c>
+      <c r="C212">
+        <v>7.4571430730000001</v>
+      </c>
+      <c r="D212" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>1.79E-7</v>
+      </c>
+      <c r="B213">
+        <v>39.960829400000001</v>
+      </c>
+      <c r="C213">
+        <v>7.6376679359999997</v>
+      </c>
+      <c r="D213" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>1.8E-7</v>
+      </c>
+      <c r="B214">
+        <v>39.980939810000002</v>
+      </c>
+      <c r="C214">
+        <v>7.9516833729999998</v>
+      </c>
+      <c r="D214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>1.8099999999999999E-7</v>
+      </c>
+      <c r="B215">
+        <v>40.015504739999997</v>
+      </c>
+      <c r="C215">
+        <v>8.0317038850000007</v>
+      </c>
+      <c r="D215" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>1.8199999999999999E-7</v>
+      </c>
+      <c r="B216">
+        <v>40.02940778</v>
+      </c>
+      <c r="C216">
+        <v>7.8188336520000004</v>
+      </c>
+      <c r="D216" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>1.8300000000000001E-7</v>
+      </c>
+      <c r="B217">
+        <v>40.015800640000002</v>
+      </c>
+      <c r="C217">
+        <v>7.5332227600000001</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>1.8400000000000001E-7</v>
+      </c>
+      <c r="B218">
+        <v>39.994587060000001</v>
+      </c>
+      <c r="C218">
+        <v>7.3993474939999997</v>
+      </c>
+      <c r="D218" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>1.85E-7</v>
+      </c>
+      <c r="B219">
+        <v>39.98707615</v>
+      </c>
+      <c r="C219">
+        <v>7.4422279329999999</v>
+      </c>
+      <c r="D219" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>1.86E-7</v>
+      </c>
+      <c r="B220">
+        <v>39.99630286</v>
+      </c>
+      <c r="C220">
+        <v>7.5199188159999997</v>
+      </c>
+      <c r="D220" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>1.8699999999999999E-7</v>
+      </c>
+      <c r="B221">
+        <v>40.009293499999998</v>
+      </c>
+      <c r="C221">
+        <v>7.4981937680000001</v>
+      </c>
+      <c r="D221" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>1.8799999999999999E-7</v>
+      </c>
+      <c r="B222">
+        <v>40.013209840000002</v>
+      </c>
+      <c r="C222">
+        <v>7.3702724579999996</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>1.8900000000000001E-7</v>
+      </c>
+      <c r="B223">
+        <v>40.006944849999996</v>
+      </c>
+      <c r="C223">
+        <v>7.2281936670000002</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>1.9000000000000001E-7</v>
+      </c>
+      <c r="B224">
+        <v>39.998915510000003</v>
+      </c>
+      <c r="C224">
+        <v>7.1524302110000004</v>
+      </c>
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>1.91E-7</v>
+      </c>
+      <c r="B225">
+        <v>39.99683375</v>
+      </c>
+      <c r="C225">
+        <v>7.1421587969999996</v>
+      </c>
+      <c r="D225" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>1.92E-7</v>
+      </c>
+      <c r="B226">
+        <v>40.000916060000002</v>
+      </c>
+      <c r="C226">
+        <v>7.1382325379999996</v>
+      </c>
+      <c r="D226" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>1.9299999999999999E-7</v>
+      </c>
+      <c r="B227">
+        <v>40.00573893</v>
+      </c>
+      <c r="C227">
+        <v>7.0926900560000004</v>
+      </c>
+      <c r="D227" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>1.9399999999999999E-7</v>
+      </c>
+      <c r="B228">
+        <v>40.006692700000002</v>
+      </c>
+      <c r="C228">
+        <v>7.0091218089999998</v>
+      </c>
+      <c r="D228" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>1.9500000000000001E-7</v>
+      </c>
+      <c r="B229">
+        <v>40.003931889999997</v>
+      </c>
+      <c r="C229">
+        <v>6.925312334</v>
+      </c>
+      <c r="D229" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="B230">
+        <v>40.000931899999998</v>
+      </c>
+      <c r="C230">
+        <v>6.8696680990000001</v>
+      </c>
+      <c r="D230" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>1.97E-7</v>
+      </c>
+      <c r="B231">
+        <v>40.000434740000003</v>
+      </c>
+      <c r="C231">
+        <v>6.8380520990000004</v>
+      </c>
+      <c r="D231" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>1.98E-7</v>
+      </c>
+      <c r="B232">
+        <v>40.002167870000001</v>
+      </c>
+      <c r="C232">
+        <v>6.8064150259999998</v>
+      </c>
+      <c r="D232" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>1.99E-7</v>
+      </c>
+      <c r="B233">
+        <v>40.003915229999997</v>
+      </c>
+      <c r="C233">
+        <v>6.7579999439999998</v>
+      </c>
+      <c r="D233" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="B234">
+        <v>40.004053970000001</v>
+      </c>
+      <c r="C234">
+        <v>6.6965111799999999</v>
+      </c>
+      <c r="D234" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>2.0100000000000001E-7</v>
+      </c>
+      <c r="B235">
+        <v>40.002860650000002</v>
+      </c>
+      <c r="C235">
+        <v>6.6371654590000002</v>
+      </c>
+      <c r="D235" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>2.0200000000000001E-7</v>
+      </c>
+      <c r="B236">
+        <v>40.00174174</v>
+      </c>
+      <c r="C236">
+        <v>6.5897699870000004</v>
+      </c>
+      <c r="D236" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>2.03E-7</v>
+      </c>
+      <c r="B237">
+        <v>40.001652409999998</v>
+      </c>
+      <c r="C237">
+        <v>6.5513193359999997</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>2.04E-7</v>
+      </c>
+      <c r="B238">
+        <v>40.002355819999998</v>
+      </c>
+      <c r="C238">
+        <v>6.5122079150000003</v>
+      </c>
+      <c r="D238" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>2.05E-7</v>
+      </c>
+      <c r="B239">
+        <v>40.002963180000002</v>
+      </c>
+      <c r="C239">
+        <v>6.4667166050000002</v>
+      </c>
+      <c r="D239" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>2.0599999999999999E-7</v>
+      </c>
+      <c r="B240">
+        <v>40.002915700000003</v>
+      </c>
+      <c r="C240">
+        <v>6.4171188609999996</v>
+      </c>
+      <c r="D240" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>2.0699999999999999E-7</v>
+      </c>
+      <c r="B241">
+        <v>40.002399820000001</v>
+      </c>
+      <c r="C241">
+        <v>6.3694352219999999</v>
+      </c>
+      <c r="D241" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>2.0800000000000001E-7</v>
+      </c>
+      <c r="B242">
+        <v>40.001974990000001</v>
+      </c>
+      <c r="C242">
+        <v>6.3269578769999999</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>2.0900000000000001E-7</v>
+      </c>
+      <c r="B243">
+        <v>40.001965920000004</v>
+      </c>
+      <c r="C243">
+        <v>6.2880109449999999</v>
+      </c>
+      <c r="D243" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>2.1E-7</v>
+      </c>
+      <c r="B244">
+        <v>40.002233160000003</v>
+      </c>
+      <c r="C244">
+        <v>6.2488150149999999</v>
+      </c>
+      <c r="D244" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>2.11E-7</v>
+      </c>
+      <c r="B245">
+        <v>40.002425930000001</v>
+      </c>
+      <c r="C245">
+        <v>6.2074716260000002</v>
+      </c>
+      <c r="D245" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>2.1199999999999999E-7</v>
+      </c>
+      <c r="B246">
+        <v>40.002356939999999</v>
+      </c>
+      <c r="C246">
+        <v>6.1651591449999996</v>
+      </c>
+      <c r="D246" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>2.1299999999999999E-7</v>
+      </c>
+      <c r="B247">
+        <v>40.002127049999999</v>
+      </c>
+      <c r="C247">
+        <v>6.124220287</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>2.1400000000000001E-7</v>
+      </c>
+      <c r="B248">
+        <v>40.001955420000002</v>
+      </c>
+      <c r="C248">
+        <v>6.0857189570000001</v>
+      </c>
+      <c r="D248" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>2.1500000000000001E-7</v>
+      </c>
+      <c r="B249">
+        <v>40.001949160000002</v>
+      </c>
+      <c r="C249">
+        <v>6.0488198339999997</v>
+      </c>
+      <c r="D249" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>2.16E-7</v>
+      </c>
+      <c r="B250">
+        <v>40.002037110000003</v>
+      </c>
+      <c r="C250">
+        <v>6.0120538970000004</v>
+      </c>
+      <c r="D250" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>2.17E-7</v>
+      </c>
+      <c r="B251">
+        <v>40.002082829999999</v>
+      </c>
+      <c r="C251">
+        <v>5.9748112979999997</v>
+      </c>
+      <c r="D251" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>2.1799999999999999E-7</v>
+      </c>
+      <c r="B252">
+        <v>40.002025699999997</v>
+      </c>
+      <c r="C252">
+        <v>5.9376503600000001</v>
+      </c>
+      <c r="D252" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>2.1899999999999999E-7</v>
+      </c>
+      <c r="B253">
+        <v>40.001914980000002</v>
+      </c>
+      <c r="C253">
+        <v>5.9014665649999998</v>
+      </c>
+      <c r="D253" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>2.2000000000000001E-7</v>
+      </c>
+      <c r="B254">
+        <v>40.00183534</v>
+      </c>
+      <c r="C254">
+        <v>5.8665835900000003</v>
+      </c>
+      <c r="D254" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>2.2100000000000001E-7</v>
+      </c>
+      <c r="B255">
+        <v>40.001820690000002</v>
+      </c>
+      <c r="C255">
+        <v>5.8326089229999996</v>
+      </c>
+      <c r="D255" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
+        <v>2.22E-7</v>
+      </c>
+      <c r="B256">
+        <v>40.001837430000002</v>
+      </c>
+      <c r="C256">
+        <v>5.798975918</v>
+      </c>
+      <c r="D256" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
+        <v>2.23E-7</v>
+      </c>
+      <c r="B257">
+        <v>40.001833189999999</v>
+      </c>
+      <c r="C257">
+        <v>5.7654952870000002</v>
+      </c>
+      <c r="D257" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
+        <v>2.2399999999999999E-7</v>
+      </c>
+      <c r="B258">
+        <v>40.001789270000003</v>
+      </c>
+      <c r="C258">
+        <v>5.7324152980000003</v>
+      </c>
+      <c r="D258" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>2.2499999999999999E-7</v>
+      </c>
+      <c r="B259">
+        <v>40.001728329999999</v>
+      </c>
+      <c r="C259">
+        <v>5.7000703279999998</v>
+      </c>
+      <c r="D259" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>2.2600000000000001E-7</v>
+      </c>
+      <c r="B260">
+        <v>40.001682649999999</v>
+      </c>
+      <c r="C260">
+        <v>5.6685475009999999</v>
+      </c>
+      <c r="D260" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>2.2700000000000001E-7</v>
+      </c>
+      <c r="B261">
+        <v>40.001662359999997</v>
+      </c>
+      <c r="C261">
+        <v>5.6376675580000004</v>
+      </c>
+      <c r="D261" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
+        <v>2.28E-7</v>
+      </c>
+      <c r="B262">
+        <v>40.001652309999997</v>
+      </c>
+      <c r="C262">
+        <v>5.6072115279999997</v>
+      </c>
+      <c r="D262" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
+        <v>2.29E-7</v>
+      </c>
+      <c r="B263">
+        <v>40.00163268</v>
+      </c>
+      <c r="C263">
+        <v>5.5771214880000004</v>
+      </c>
+      <c r="D263" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
+        <v>2.2999999999999999E-7</v>
+      </c>
+      <c r="B264">
+        <v>40.001598110000003</v>
+      </c>
+      <c r="C264">
+        <v>5.5475012079999999</v>
+      </c>
+      <c r="D264" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
+        <v>2.3099999999999999E-7</v>
+      </c>
+      <c r="B265">
+        <v>40.001558609999996</v>
+      </c>
+      <c r="C265">
+        <v>5.5184706630000004</v>
+      </c>
+      <c r="D265" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
+        <v>2.3200000000000001E-7</v>
+      </c>
+      <c r="B266">
+        <v>40.001526329999997</v>
+      </c>
+      <c r="C266">
+        <v>5.4900456330000003</v>
+      </c>
+      <c r="D266" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>2.3300000000000001E-7</v>
+      </c>
+      <c r="B267">
+        <v>40.001503999999997</v>
+      </c>
+      <c r="C267">
+        <v>5.4621442370000004</v>
+      </c>
+      <c r="D267" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>2.34E-7</v>
+      </c>
+      <c r="B268">
+        <v>40.001485029999998</v>
+      </c>
+      <c r="C268">
+        <v>5.4346798979999997</v>
+      </c>
+      <c r="D268" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>2.35E-7</v>
+      </c>
+      <c r="B269">
+        <v>40.001462019999998</v>
+      </c>
+      <c r="C269">
+        <v>5.4076332750000002</v>
+      </c>
+      <c r="D269" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>2.36E-7</v>
+      </c>
+      <c r="B270">
+        <v>40.001433609999999</v>
+      </c>
+      <c r="C270">
+        <v>5.3810439570000002</v>
+      </c>
+      <c r="D270" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>2.3699999999999999E-7</v>
+      </c>
+      <c r="B271">
+        <v>40.001404100000002</v>
+      </c>
+      <c r="C271">
+        <v>5.3549513119999999</v>
+      </c>
+      <c r="D271" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>2.3799999999999999E-7</v>
+      </c>
+      <c r="B272">
+        <v>40.001378000000003</v>
+      </c>
+      <c r="C272">
+        <v>5.3293517169999998</v>
+      </c>
+      <c r="D272" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>2.3900000000000001E-7</v>
+      </c>
+      <c r="B273">
+        <v>40.0013559</v>
+      </c>
+      <c r="C273">
+        <v>5.304206325</v>
+      </c>
+      <c r="D273" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>2.3999999999999998E-7</v>
+      </c>
+      <c r="B274">
+        <v>40.001335019999999</v>
+      </c>
+      <c r="C274">
+        <v>5.279478567</v>
+      </c>
+      <c r="D274" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>2.41E-7</v>
+      </c>
+      <c r="B275">
+        <v>40.001312599999999</v>
+      </c>
+      <c r="C275">
+        <v>5.2551594650000002</v>
+      </c>
+      <c r="D275" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>2.4200000000000002E-7</v>
+      </c>
+      <c r="B276">
+        <v>40.001288420000002</v>
+      </c>
+      <c r="C276">
+        <v>5.2312612349999998</v>
+      </c>
+      <c r="D276" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>2.4299999999999999E-7</v>
+      </c>
+      <c r="B277">
+        <v>40.001264259999999</v>
+      </c>
+      <c r="C277">
+        <v>5.2077935909999997</v>
+      </c>
+      <c r="D277" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>2.4400000000000001E-7</v>
+      </c>
+      <c r="B278">
+        <v>40.001241780000001</v>
+      </c>
+      <c r="C278">
+        <v>5.1847488559999997</v>
+      </c>
+      <c r="D278" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>2.4499999999999998E-7</v>
+      </c>
+      <c r="B279">
+        <v>40.001221030000004</v>
+      </c>
+      <c r="C279">
+        <v>5.162106895</v>
+      </c>
+      <c r="D279" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>2.4600000000000001E-7</v>
+      </c>
+      <c r="B280">
+        <v>40.001200840000003</v>
+      </c>
+      <c r="C280">
+        <v>5.139850043</v>
+      </c>
+      <c r="D280" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>2.4699999999999998E-7</v>
+      </c>
+      <c r="B281">
+        <v>40.001180210000001</v>
+      </c>
+      <c r="C281">
+        <v>5.117971818</v>
+      </c>
+      <c r="D281" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>2.48E-7</v>
+      </c>
+      <c r="B282">
+        <v>40.00115916</v>
+      </c>
+      <c r="C282">
+        <v>5.0964732719999999</v>
+      </c>
+      <c r="D282" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>2.4900000000000002E-7</v>
+      </c>
+      <c r="B283">
+        <v>40.001138429999997</v>
+      </c>
+      <c r="C283">
+        <v>5.0753536300000004</v>
+      </c>
+      <c r="D283" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="B284">
+        <v>40.001118589999997</v>
+      </c>
+      <c r="C284">
+        <v>5.0546052220000002</v>
+      </c>
+      <c r="D284" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>2.5100000000000001E-7</v>
+      </c>
+      <c r="B285">
+        <v>40.001099609999997</v>
+      </c>
+      <c r="C285">
+        <v>5.0342161049999996</v>
+      </c>
+      <c r="D285" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>2.5199999999999998E-7</v>
+      </c>
+      <c r="B286">
+        <v>40.00108101</v>
+      </c>
+      <c r="C286">
+        <v>5.0141759209999996</v>
+      </c>
+      <c r="D286" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>2.53E-7</v>
+      </c>
+      <c r="B287">
+        <v>40.001062410000003</v>
+      </c>
+      <c r="C287">
+        <v>4.9944788200000003</v>
+      </c>
+      <c r="D287" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>2.5400000000000002E-7</v>
+      </c>
+      <c r="B288">
+        <v>40.001043869999997</v>
+      </c>
+      <c r="C288">
+        <v>4.9751216249999999</v>
+      </c>
+      <c r="D288" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>2.5499999999999999E-7</v>
+      </c>
+      <c r="B289">
+        <v>40.001025679999998</v>
+      </c>
+      <c r="C289">
+        <v>4.9561001720000002</v>
+      </c>
+      <c r="D289" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>2.5600000000000002E-7</v>
+      </c>
+      <c r="B290">
+        <v>40.001008050000003</v>
+      </c>
+      <c r="C290">
+        <v>4.9374076379999998</v>
+      </c>
+      <c r="D290" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="1">
+        <v>2.5699999999999999E-7</v>
+      </c>
+      <c r="B291">
+        <v>40.00099092</v>
+      </c>
+      <c r="C291">
+        <v>4.919035815</v>
+      </c>
+      <c r="D291" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
+        <v>2.5800000000000001E-7</v>
+      </c>
+      <c r="B292">
+        <v>40.000974100000001</v>
+      </c>
+      <c r="C292">
+        <v>4.9009773780000003</v>
+      </c>
+      <c r="D292" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>2.5899999999999998E-7</v>
+      </c>
+      <c r="B293">
+        <v>40.000957470000003</v>
+      </c>
+      <c r="C293">
+        <v>4.8832268340000002</v>
+      </c>
+      <c r="D293" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>2.6E-7</v>
+      </c>
+      <c r="B294">
+        <v>40.000941040000001</v>
+      </c>
+      <c r="C294">
+        <v>4.865779657</v>
+      </c>
+      <c r="D294" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
+        <v>2.6100000000000002E-7</v>
+      </c>
+      <c r="B295">
+        <v>40.000924939999997</v>
+      </c>
+      <c r="C295">
+        <v>4.8486308759999996</v>
+      </c>
+      <c r="D295" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
+        <v>2.6199999999999999E-7</v>
+      </c>
+      <c r="B296">
+        <v>40.000909219999997</v>
+      </c>
+      <c r="C296">
+        <v>4.831774545</v>
+      </c>
+      <c r="D296" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
+        <v>2.6300000000000001E-7</v>
+      </c>
+      <c r="B297">
+        <v>40.000893869999999</v>
+      </c>
+      <c r="C297">
+        <v>4.8152043249999998</v>
+      </c>
+      <c r="D297" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
+        <v>2.6399999999999998E-7</v>
+      </c>
+      <c r="B298">
+        <v>40.000878800000002</v>
+      </c>
+      <c r="C298">
+        <v>4.7989143519999997</v>
+      </c>
+      <c r="D298" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
+        <v>2.65E-7</v>
+      </c>
+      <c r="B299">
+        <v>40.000863959999997</v>
+      </c>
+      <c r="C299">
+        <v>4.7828995350000003</v>
+      </c>
+      <c r="D299" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
+        <v>2.6600000000000003E-7</v>
+      </c>
+      <c r="B300">
+        <v>40.000849359999997</v>
+      </c>
+      <c r="C300">
+        <v>4.7671551599999997</v>
+      </c>
+      <c r="D300" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
+        <v>2.67E-7</v>
+      </c>
+      <c r="B301">
+        <v>40.000835049999999</v>
+      </c>
+      <c r="C301">
+        <v>4.7516763549999999</v>
+      </c>
+      <c r="D301" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302" s="1">
+        <v>2.6800000000000002E-7</v>
+      </c>
+      <c r="B302">
+        <v>40.000821039999998</v>
+      </c>
+      <c r="C302">
+        <v>4.736457927</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303" s="1">
+        <v>2.6899999999999999E-7</v>
+      </c>
+      <c r="B303">
+        <v>40.00080732</v>
+      </c>
+      <c r="C303">
+        <v>4.7214946219999998</v>
+      </c>
+      <c r="D303" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304" s="1">
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="B304">
+        <v>40.000793860000002</v>
+      </c>
+      <c r="C304">
+        <v>4.7067814500000003</v>
+      </c>
+      <c r="D304" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305" s="1">
+        <v>2.7099999999999998E-7</v>
+      </c>
+      <c r="B305">
+        <v>40.000780630000001</v>
+      </c>
+      <c r="C305">
+        <v>4.6923137749999997</v>
+      </c>
+      <c r="D305" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306" s="1">
+        <v>2.72E-7</v>
+      </c>
+      <c r="B306">
+        <v>40.000767639999999</v>
+      </c>
+      <c r="C306">
+        <v>4.6780871360000003</v>
+      </c>
+      <c r="D306" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307" s="1">
+        <v>2.7300000000000002E-7</v>
+      </c>
+      <c r="B307">
+        <v>40.000754890000003</v>
+      </c>
+      <c r="C307">
+        <v>4.6640970499999996</v>
+      </c>
+      <c r="D307" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308" s="1">
+        <v>2.7399999999999999E-7</v>
+      </c>
+      <c r="B308">
+        <v>40.000742410000001</v>
+      </c>
+      <c r="C308">
+        <v>4.65033896</v>
+      </c>
+      <c r="D308" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" s="1">
+        <v>2.7500000000000001E-7</v>
+      </c>
+      <c r="B309">
+        <v>40.000730160000003</v>
+      </c>
+      <c r="C309">
+        <v>4.6368083530000002</v>
+      </c>
+      <c r="D309" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" s="1">
+        <v>2.7599999999999998E-7</v>
+      </c>
+      <c r="B310">
+        <v>40.000718149999997</v>
+      </c>
+      <c r="C310">
+        <v>4.6235008769999997</v>
+      </c>
+      <c r="D310" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" s="1">
+        <v>2.7700000000000001E-7</v>
+      </c>
+      <c r="B311">
+        <v>40.000706350000002</v>
+      </c>
+      <c r="C311">
+        <v>4.6104123619999999</v>
+      </c>
+      <c r="D311" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" s="1">
+        <v>2.7799999999999997E-7</v>
+      </c>
+      <c r="B312">
+        <v>40.000694780000003</v>
+      </c>
+      <c r="C312">
+        <v>4.5975387489999999</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" s="1">
+        <v>2.79E-7</v>
+      </c>
+      <c r="B313">
+        <v>40.000683420000001</v>
+      </c>
+      <c r="C313">
+        <v>4.5848760070000001</v>
+      </c>
+      <c r="D313" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" s="1">
+        <v>2.8000000000000002E-7</v>
+      </c>
+      <c r="B314">
+        <v>40.000672280000003</v>
+      </c>
+      <c r="C314">
+        <v>4.5724201300000002</v>
+      </c>
+      <c r="D314" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" s="1">
+        <v>2.8099999999999999E-7</v>
+      </c>
+      <c r="B315">
+        <v>40.000661360000002</v>
+      </c>
+      <c r="C315">
+        <v>4.5601671760000002</v>
+      </c>
+      <c r="D315" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" s="1">
+        <v>2.8200000000000001E-7</v>
+      </c>
+      <c r="B316">
+        <v>40.000650630000003</v>
+      </c>
+      <c r="C316">
+        <v>4.5481133140000001</v>
+      </c>
+      <c r="D316" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" s="1">
+        <v>2.8299999999999998E-7</v>
+      </c>
+      <c r="B317">
+        <v>40.000640109999999</v>
+      </c>
+      <c r="C317">
+        <v>4.5362548279999997</v>
+      </c>
+      <c r="D317" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" s="1">
+        <v>2.84E-7</v>
+      </c>
+      <c r="B318">
+        <v>40.000629779999997</v>
+      </c>
+      <c r="C318">
+        <v>4.5245880810000001</v>
+      </c>
+      <c r="D318" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" s="1">
+        <v>2.8500000000000002E-7</v>
+      </c>
+      <c r="B319">
+        <v>40.000619649999997</v>
+      </c>
+      <c r="C319">
+        <v>4.5131094919999999</v>
+      </c>
+      <c r="D319" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
+        <v>2.8599999999999999E-7</v>
+      </c>
+      <c r="B320">
+        <v>40.000609709999999</v>
+      </c>
+      <c r="C320">
+        <v>4.5018155279999998</v>
+      </c>
+      <c r="D320" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" s="1">
+        <v>2.8700000000000002E-7</v>
+      </c>
+      <c r="B321">
+        <v>40.000599950000002</v>
+      </c>
+      <c r="C321">
+        <v>4.4907027240000001</v>
+      </c>
+      <c r="D321" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" s="1">
+        <v>2.8799999999999998E-7</v>
+      </c>
+      <c r="B322">
+        <v>40.000590369999998</v>
+      </c>
+      <c r="C322">
+        <v>4.4797677</v>
+      </c>
+      <c r="D322" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" s="1">
+        <v>2.8900000000000001E-7</v>
+      </c>
+      <c r="B323">
+        <v>40.000580980000002</v>
+      </c>
+      <c r="C323">
+        <v>4.4690071590000002</v>
+      </c>
+      <c r="D323" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" s="1">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="B324">
+        <v>40.000571749999999</v>
+      </c>
+      <c r="C324">
+        <v>4.458417871</v>
+      </c>
+      <c r="D324" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" s="1">
+        <v>2.91E-7</v>
+      </c>
+      <c r="B325">
+        <v>40.000562700000003</v>
+      </c>
+      <c r="C325">
+        <v>4.4479966629999996</v>
+      </c>
+      <c r="D325" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" s="1">
+        <v>2.9200000000000002E-7</v>
+      </c>
+      <c r="B326">
+        <v>40.00055381</v>
+      </c>
+      <c r="C326">
+        <v>4.4377404189999998</v>
+      </c>
+      <c r="D326" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" s="1">
+        <v>2.9299999999999999E-7</v>
+      </c>
+      <c r="B327">
+        <v>40.000545090000003</v>
+      </c>
+      <c r="C327">
+        <v>4.4276460870000003</v>
+      </c>
+      <c r="D327" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" s="1">
+        <v>2.9400000000000001E-7</v>
+      </c>
+      <c r="B328">
+        <v>40.000536529999998</v>
+      </c>
+      <c r="C328">
+        <v>4.4177106820000001</v>
+      </c>
+      <c r="D328" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" s="1">
+        <v>2.9499999999999998E-7</v>
+      </c>
+      <c r="B329">
+        <v>40.000528129999999</v>
+      </c>
+      <c r="C329">
+        <v>4.407931284</v>
+      </c>
+      <c r="D329" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" s="1">
+        <v>2.96E-7</v>
+      </c>
+      <c r="B330">
+        <v>40.000519879999999</v>
+      </c>
+      <c r="C330">
+        <v>4.3983050349999999</v>
+      </c>
+      <c r="D330" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" s="1">
+        <v>2.9700000000000003E-7</v>
+      </c>
+      <c r="B331">
+        <v>40.000511779999997</v>
+      </c>
+      <c r="C331">
+        <v>4.3888291300000004</v>
+      </c>
+      <c r="D331" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
+        <v>2.9799999999999999E-7</v>
+      </c>
+      <c r="B332">
+        <v>40.00050383</v>
+      </c>
+      <c r="C332">
+        <v>4.3795008190000004</v>
+      </c>
+      <c r="D332" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
+        <v>2.9900000000000002E-7</v>
+      </c>
+      <c r="B333">
+        <v>40.00049602</v>
+      </c>
+      <c r="C333">
+        <v>4.3703174090000001</v>
+      </c>
+      <c r="D333" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334" s="1">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="B334">
+        <v>40.000488359999999</v>
+      </c>
+      <c r="C334">
+        <v>4.3612762639999998</v>
+      </c>
+      <c r="D334" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335" s="1">
+        <v>3.0100000000000001E-7</v>
+      </c>
+      <c r="B335">
+        <v>40.000480830000001</v>
+      </c>
+      <c r="C335">
+        <v>4.352374803</v>
+      </c>
+      <c r="D335" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336" s="1">
+        <v>3.0199999999999998E-7</v>
+      </c>
+      <c r="B336">
+        <v>40.00047344</v>
+      </c>
+      <c r="C336">
+        <v>4.3436104980000003</v>
+      </c>
+      <c r="D336" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337" s="1">
+        <v>3.03E-7</v>
+      </c>
+      <c r="B337">
+        <v>40.000466189999997</v>
+      </c>
+      <c r="C337">
+        <v>4.334980872</v>
+      </c>
+      <c r="D337" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338" s="1">
+        <v>3.0400000000000002E-7</v>
+      </c>
+      <c r="B338">
+        <v>40.000459059999997</v>
+      </c>
+      <c r="C338">
+        <v>4.3264834949999997</v>
+      </c>
+      <c r="D338" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339" s="1">
+        <v>3.0499999999999999E-7</v>
+      </c>
+      <c r="B339">
+        <v>40.000452070000001</v>
+      </c>
+      <c r="C339">
+        <v>4.318115991</v>
+      </c>
+      <c r="D339" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340" s="1">
+        <v>3.0600000000000001E-7</v>
+      </c>
+      <c r="B340">
+        <v>40.000445190000001</v>
+      </c>
+      <c r="C340">
+        <v>4.3098760279999997</v>
+      </c>
+      <c r="D340" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" s="1">
+        <v>3.0699999999999998E-7</v>
+      </c>
+      <c r="B341">
+        <v>40.000438440000003</v>
+      </c>
+      <c r="C341">
+        <v>4.3017613270000004</v>
+      </c>
+      <c r="D341" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342" s="1">
+        <v>3.0800000000000001E-7</v>
+      </c>
+      <c r="B342">
+        <v>40.000431820000003</v>
+      </c>
+      <c r="C342">
+        <v>4.293769653</v>
+      </c>
+      <c r="D342" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343" s="1">
+        <v>3.0899999999999997E-7</v>
+      </c>
+      <c r="B343">
+        <v>40.000425300000003</v>
+      </c>
+      <c r="C343">
+        <v>4.2858988159999996</v>
+      </c>
+      <c r="D343" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344" s="1">
+        <v>3.1E-7</v>
+      </c>
+      <c r="B344">
+        <v>40.00041891</v>
+      </c>
+      <c r="C344">
+        <v>4.2781466699999999</v>
+      </c>
+      <c r="D344" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345" s="1">
+        <v>3.1100000000000002E-7</v>
+      </c>
+      <c r="B345">
+        <v>40.00041263</v>
+      </c>
+      <c r="C345">
+        <v>4.2705111130000004</v>
+      </c>
+      <c r="D345" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346" s="1">
+        <v>3.1199999999999999E-7</v>
+      </c>
+      <c r="B346">
+        <v>40.00040645</v>
+      </c>
+      <c r="C346">
+        <v>4.2629900850000002</v>
+      </c>
+      <c r="D346" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347" s="1">
+        <v>3.1300000000000001E-7</v>
+      </c>
+      <c r="B347">
+        <v>40.000400390000003</v>
+      </c>
+      <c r="C347">
+        <v>4.2555815709999996</v>
+      </c>
+      <c r="D347" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348" s="1">
+        <v>3.1399999999999998E-7</v>
+      </c>
+      <c r="B348">
+        <v>40.00039443</v>
+      </c>
+      <c r="C348">
+        <v>4.2482835919999999</v>
+      </c>
+      <c r="D348" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349" s="1">
+        <v>3.15E-7</v>
+      </c>
+      <c r="B349">
+        <v>40.000388579999999</v>
+      </c>
+      <c r="C349">
+        <v>4.2410942120000001</v>
+      </c>
+      <c r="D349" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350" s="1">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="B350">
+        <v>40.00038283</v>
+      </c>
+      <c r="C350">
+        <v>4.2340115330000003</v>
+      </c>
+      <c r="D350" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351" s="1">
+        <v>3.1699999999999999E-7</v>
+      </c>
+      <c r="B351">
+        <v>40.000377180000001</v>
+      </c>
+      <c r="C351">
+        <v>4.2270336960000003</v>
+      </c>
+      <c r="D351" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352" s="1">
+        <v>3.1800000000000002E-7</v>
+      </c>
+      <c r="B352">
+        <v>40.000371629999997</v>
+      </c>
+      <c r="C352">
+        <v>4.2201588780000003</v>
+      </c>
+      <c r="D352" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353" s="1">
+        <v>3.1899999999999998E-7</v>
+      </c>
+      <c r="B353">
+        <v>40.000366169999999</v>
+      </c>
+      <c r="C353">
+        <v>4.213385293</v>
+      </c>
+      <c r="D353" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354" s="1">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="B354">
+        <v>40.000360809999997</v>
+      </c>
+      <c r="C354">
+        <v>4.2067111920000002</v>
+      </c>
+      <c r="D354" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A355" s="1">
+        <v>3.2099999999999998E-7</v>
+      </c>
+      <c r="B355">
+        <v>40.000355540000001</v>
+      </c>
+      <c r="C355">
+        <v>4.2001348590000003</v>
+      </c>
+      <c r="D355" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A356" s="1">
+        <v>3.22E-7</v>
+      </c>
+      <c r="B356">
+        <v>40.000350359999999</v>
+      </c>
+      <c r="C356">
+        <v>4.1936546139999997</v>
+      </c>
+      <c r="D356" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A357" s="1">
+        <v>3.2300000000000002E-7</v>
+      </c>
+      <c r="B357">
+        <v>40.000345269999997</v>
+      </c>
+      <c r="C357">
+        <v>4.18726881</v>
+      </c>
+      <c r="D357" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A358" s="1">
+        <v>3.2399999999999999E-7</v>
+      </c>
+      <c r="B358">
+        <v>40.000340270000002</v>
+      </c>
+      <c r="C358">
+        <v>4.1809758309999996</v>
+      </c>
+      <c r="D358" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A359" s="1">
+        <v>3.2500000000000001E-7</v>
+      </c>
+      <c r="B359">
+        <v>40.00033535</v>
+      </c>
+      <c r="C359">
+        <v>4.1747740960000002</v>
+      </c>
+      <c r="D359" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360" s="1">
+        <v>3.2599999999999998E-7</v>
+      </c>
+      <c r="B360">
+        <v>40.000330519999999</v>
+      </c>
+      <c r="C360">
+        <v>4.1686620530000003</v>
+      </c>
+      <c r="D360" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361" s="1">
+        <v>3.27E-7</v>
+      </c>
+      <c r="B361">
+        <v>40.000325760000003</v>
+      </c>
+      <c r="C361">
+        <v>4.1626381810000002</v>
+      </c>
+      <c r="D361" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362" s="1">
+        <v>3.2800000000000003E-7</v>
+      </c>
+      <c r="B362">
+        <v>40.00032109</v>
+      </c>
+      <c r="C362">
+        <v>4.1567009910000001</v>
+      </c>
+      <c r="D362" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363" s="1">
+        <v>3.2899999999999999E-7</v>
+      </c>
+      <c r="B363">
+        <v>40.000316499999997</v>
+      </c>
+      <c r="C363">
+        <v>4.1508490199999999</v>
+      </c>
+      <c r="D363" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364" s="1">
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="B364">
+        <v>40.000311979999999</v>
+      </c>
+      <c r="C364">
+        <v>4.145080836</v>
+      </c>
+      <c r="D364" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365" s="1">
+        <v>3.3099999999999999E-7</v>
+      </c>
+      <c r="B365">
+        <v>40.000307540000001</v>
+      </c>
+      <c r="C365">
+        <v>4.1393950359999998</v>
+      </c>
+      <c r="D365" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366" s="1">
+        <v>3.3200000000000001E-7</v>
+      </c>
+      <c r="B366">
+        <v>40.000303170000002</v>
+      </c>
+      <c r="C366">
+        <v>4.1337902409999998</v>
+      </c>
+      <c r="D366" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367" s="1">
+        <v>3.3299999999999998E-7</v>
+      </c>
+      <c r="B367">
+        <v>40.000298870000002</v>
+      </c>
+      <c r="C367">
+        <v>4.1282651010000002</v>
+      </c>
+      <c r="D367" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A368" s="1">
+        <v>3.34E-7</v>
+      </c>
+      <c r="B368">
+        <v>40.000294650000001</v>
+      </c>
+      <c r="C368">
+        <v>4.1228182929999999</v>
+      </c>
+      <c r="D368" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
+        <v>3.3500000000000002E-7</v>
+      </c>
+      <c r="B369">
+        <v>40.000290499999998</v>
+      </c>
+      <c r="C369">
+        <v>4.1174485179999998</v>
+      </c>
+      <c r="D369" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
+        <v>3.3599999999999999E-7</v>
+      </c>
+      <c r="B370">
+        <v>40.000286410000001</v>
+      </c>
+      <c r="C370">
+        <v>4.1121545040000003</v>
+      </c>
+      <c r="D370" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A371" s="1">
+        <v>3.3700000000000001E-7</v>
+      </c>
+      <c r="B371">
+        <v>40.000282400000003</v>
+      </c>
+      <c r="C371">
+        <v>4.1069350010000001</v>
+      </c>
+      <c r="D371" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
+        <v>3.3799999999999998E-7</v>
+      </c>
+      <c r="B372">
+        <v>40.000278440000002</v>
+      </c>
+      <c r="C372">
+        <v>4.1017887860000002</v>
+      </c>
+      <c r="D372" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
+        <v>3.39E-7</v>
+      </c>
+      <c r="B373">
+        <v>40.000274560000001</v>
+      </c>
+      <c r="C373">
+        <v>4.0967146579999998</v>
+      </c>
+      <c r="D373" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
+        <v>3.3999999999999997E-7</v>
+      </c>
+      <c r="B374">
+        <v>40.000270729999997</v>
+      </c>
+      <c r="C374">
+        <v>4.0917114379999999</v>
+      </c>
+      <c r="D374" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A375" s="1">
+        <v>3.41E-7</v>
+      </c>
+      <c r="B375">
+        <v>40.000266969999998</v>
+      </c>
+      <c r="C375">
+        <v>4.0867779710000001</v>
+      </c>
+      <c r="D375" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="B376">
+        <v>40.000263269999998</v>
+      </c>
+      <c r="C376">
+        <v>4.0819131249999998</v>
+      </c>
+      <c r="D376" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
+        <v>3.4299999999999999E-7</v>
+      </c>
+      <c r="B377">
+        <v>40.00025419</v>
+      </c>
+      <c r="C377">
+        <v>4.0771157870000003</v>
+      </c>
+      <c r="D377" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A378" s="1">
+        <v>3.4400000000000001E-7</v>
+      </c>
+      <c r="B378">
+        <v>40.000250860000001</v>
+      </c>
+      <c r="C378">
+        <v>4.0723828419999997</v>
+      </c>
+      <c r="D378" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A379" s="1">
+        <v>3.4499999999999998E-7</v>
+      </c>
+      <c r="B379">
+        <v>40.000247479999999</v>
+      </c>
+      <c r="C379">
+        <v>4.0677139980000003</v>
+      </c>
+      <c r="D379" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A380" s="1">
+        <v>3.46E-7</v>
+      </c>
+      <c r="B380">
+        <v>40.000244049999999</v>
+      </c>
+      <c r="C380">
+        <v>4.0631099280000003</v>
+      </c>
+      <c r="D380" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A381" s="1">
+        <v>3.4700000000000002E-7</v>
+      </c>
+      <c r="B381">
+        <v>40.00024062</v>
+      </c>
+      <c r="C381">
+        <v>4.0585709730000001</v>
+      </c>
+      <c r="D381" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A382" s="1">
+        <v>3.4799999999999999E-7</v>
+      </c>
+      <c r="B382">
+        <v>40.000237290000001</v>
+      </c>
+      <c r="C382">
+        <v>4.0540952619999997</v>
+      </c>
+      <c r="D382" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A383" s="1">
+        <v>3.4900000000000001E-7</v>
+      </c>
+      <c r="B383">
+        <v>40.000234110000001</v>
+      </c>
+      <c r="C383">
+        <v>4.0496820439999999</v>
+      </c>
+      <c r="D383" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A384" s="1">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="B384">
+        <v>40.000231030000002</v>
+      </c>
+      <c r="C384">
+        <v>4.0453285880000003</v>
+      </c>
+      <c r="D384" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A385" s="1">
+        <v>3.5100000000000001E-7</v>
+      </c>
+      <c r="B385">
+        <v>40.000227989999999</v>
+      </c>
+      <c r="C385">
+        <v>4.0410341360000004</v>
+      </c>
+      <c r="D385" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A386" s="1">
+        <v>3.5199999999999998E-7</v>
+      </c>
+      <c r="B386">
+        <v>40.000224940000003</v>
+      </c>
+      <c r="C386">
+        <v>4.0367975410000003</v>
+      </c>
+      <c r="D386" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A387" s="1">
+        <v>3.53E-7</v>
+      </c>
+      <c r="B387">
+        <v>40.0002219</v>
+      </c>
+      <c r="C387">
+        <v>4.0326187080000002</v>
+      </c>
+      <c r="D387" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A388" s="1">
+        <v>3.5400000000000002E-7</v>
+      </c>
+      <c r="B388">
+        <v>40.000218930000003</v>
+      </c>
+      <c r="C388">
+        <v>4.0284966510000002</v>
+      </c>
+      <c r="D388" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A389" s="1">
+        <v>3.5499999999999999E-7</v>
+      </c>
+      <c r="B389">
+        <v>40.000216039999998</v>
+      </c>
+      <c r="C389">
+        <v>4.0244304849999999</v>
+      </c>
+      <c r="D389" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A390" s="1">
+        <v>3.5600000000000001E-7</v>
+      </c>
+      <c r="B390">
+        <v>40.000213209999998</v>
+      </c>
+      <c r="C390">
+        <v>4.0204189020000003</v>
+      </c>
+      <c r="D390" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A391" s="1">
+        <v>3.5699999999999998E-7</v>
+      </c>
+      <c r="B391">
+        <v>40.000210410000001</v>
+      </c>
+      <c r="C391">
+        <v>4.0164610730000003</v>
+      </c>
+      <c r="D391" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A392" s="1">
+        <v>3.58E-7</v>
+      </c>
+      <c r="B392">
+        <v>40.000207629999998</v>
+      </c>
+      <c r="C392">
+        <v>4.0125562229999998</v>
+      </c>
+      <c r="D392" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A393" s="1">
+        <v>3.5900000000000003E-7</v>
+      </c>
+      <c r="B393">
+        <v>40.000204879999998</v>
+      </c>
+      <c r="C393">
+        <v>4.008703787</v>
+      </c>
+      <c r="D393" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A394" s="1">
+        <v>3.5999999999999999E-7</v>
+      </c>
+      <c r="B394">
+        <v>40.000202180000002</v>
+      </c>
+      <c r="C394">
+        <v>4.0049029679999997</v>
+      </c>
+      <c r="D394" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A395" s="1">
+        <v>3.6100000000000002E-7</v>
+      </c>
+      <c r="B395">
+        <v>40.000199530000003</v>
+      </c>
+      <c r="C395">
+        <v>4.0011529210000001</v>
+      </c>
+      <c r="D395" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A396" s="1">
+        <v>3.6199999999999999E-7</v>
+      </c>
+      <c r="B396">
+        <v>40.000196930000001</v>
+      </c>
+      <c r="C396">
+        <v>3.9974527260000001</v>
+      </c>
+      <c r="D396" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A397" s="1">
+        <v>3.6300000000000001E-7</v>
+      </c>
+      <c r="B397">
+        <v>40.000194370000003</v>
+      </c>
+      <c r="C397">
+        <v>3.9938016119999999</v>
+      </c>
+      <c r="D397" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A398" s="1">
+        <v>3.6399999999999998E-7</v>
+      </c>
+      <c r="B398">
+        <v>40.000191829999999</v>
+      </c>
+      <c r="C398">
+        <v>3.99019887</v>
+      </c>
+      <c r="D398" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A399" s="1">
+        <v>3.65E-7</v>
+      </c>
+      <c r="B399">
+        <v>40.000189329999998</v>
+      </c>
+      <c r="C399">
+        <v>3.9866438450000001</v>
+      </c>
+      <c r="D399" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A400" s="1">
+        <v>3.6600000000000002E-7</v>
+      </c>
+      <c r="B400">
+        <v>40.00018687</v>
+      </c>
+      <c r="C400">
+        <v>3.9831358190000001</v>
+      </c>
+      <c r="D400" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A401" s="1">
+        <v>3.6699999999999999E-7</v>
+      </c>
+      <c r="B401">
+        <v>40.00018446</v>
+      </c>
+      <c r="C401">
+        <v>3.979674046</v>
+      </c>
+      <c r="D401" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
+        <v>3.6800000000000001E-7</v>
+      </c>
+      <c r="B402">
+        <v>40.000182080000002</v>
+      </c>
+      <c r="C402">
+        <v>3.9762577810000002</v>
+      </c>
+      <c r="D402" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A403" s="1">
+        <v>3.6899999999999998E-7</v>
+      </c>
+      <c r="B403">
+        <v>40.000179729999999</v>
+      </c>
+      <c r="C403">
+        <v>3.9728863329999999</v>
+      </c>
+      <c r="D403" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
+        <v>3.7E-7</v>
+      </c>
+      <c r="B404">
+        <v>40.000177409999999</v>
+      </c>
+      <c r="C404">
+        <v>3.9695590489999999</v>
+      </c>
+      <c r="D404" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
+        <v>3.7099999999999997E-7</v>
+      </c>
+      <c r="B405">
+        <v>40.000175130000002</v>
+      </c>
+      <c r="C405">
+        <v>3.9662752960000001</v>
+      </c>
+      <c r="D405" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A406" s="1">
+        <v>3.72E-7</v>
+      </c>
+      <c r="B406">
+        <v>40.000172880000001</v>
+      </c>
+      <c r="C406">
+        <v>3.9630344239999999</v>
+      </c>
+      <c r="D406" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A407" s="1">
+        <v>3.7300000000000002E-7</v>
+      </c>
+      <c r="B407">
+        <v>40.000170670000003</v>
+      </c>
+      <c r="C407">
+        <v>3.9598357790000001</v>
+      </c>
+      <c r="D407" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A408" s="1">
+        <v>3.7399999999999999E-7</v>
+      </c>
+      <c r="B408">
+        <v>40.00016849</v>
+      </c>
+      <c r="C408">
+        <v>3.9566787149999998</v>
+      </c>
+      <c r="D408" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A409" s="1">
+        <v>3.7500000000000001E-7</v>
+      </c>
+      <c r="B409">
+        <v>40.00016634</v>
+      </c>
+      <c r="C409">
+        <v>3.9535626150000001</v>
+      </c>
+      <c r="D409" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A410" s="1">
+        <v>3.7599999999999998E-7</v>
+      </c>
+      <c r="B410">
+        <v>40.000164220000002</v>
+      </c>
+      <c r="C410">
+        <v>3.9504868829999999</v>
+      </c>
+      <c r="D410" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A411" s="1">
+        <v>3.77E-7</v>
+      </c>
+      <c r="B411">
+        <v>40.00016213</v>
+      </c>
+      <c r="C411">
+        <v>3.9474509310000001</v>
+      </c>
+      <c r="D411" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A412" s="1">
+        <v>3.7800000000000002E-7</v>
+      </c>
+      <c r="B412">
+        <v>40.00016007</v>
+      </c>
+      <c r="C412">
+        <v>3.9444541750000002</v>
+      </c>
+      <c r="D412" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A413" s="1">
+        <v>3.7899999999999999E-7</v>
+      </c>
+      <c r="B413">
+        <v>40.000158040000002</v>
+      </c>
+      <c r="C413">
+        <v>3.941496033</v>
+      </c>
+      <c r="D413" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A414" s="1">
+        <v>3.8000000000000001E-7</v>
+      </c>
+      <c r="B414">
+        <v>40.000156050000001</v>
+      </c>
+      <c r="C414">
+        <v>3.938575932</v>
+      </c>
+      <c r="D414" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A415" s="1">
+        <v>3.8099999999999998E-7</v>
+      </c>
+      <c r="B415">
+        <v>40.000154070000001</v>
+      </c>
+      <c r="C415">
+        <v>3.9356933180000002</v>
+      </c>
+      <c r="D415" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A416" s="1">
+        <v>3.8200000000000001E-7</v>
+      </c>
+      <c r="B416">
+        <v>40.000152129999996</v>
+      </c>
+      <c r="C416">
+        <v>3.9328476459999999</v>
+      </c>
+      <c r="D416" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A417" s="1">
+        <v>3.8299999999999998E-7</v>
+      </c>
+      <c r="B417">
+        <v>40.000150220000002</v>
+      </c>
+      <c r="C417">
+        <v>3.930038385</v>
+      </c>
+      <c r="D417" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A418" s="1">
+        <v>3.84E-7</v>
+      </c>
+      <c r="B418">
+        <v>40.000148330000002</v>
+      </c>
+      <c r="C418">
+        <v>3.9272650050000002</v>
+      </c>
+      <c r="D418" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A419" s="1">
+        <v>3.8500000000000002E-7</v>
+      </c>
+      <c r="B419">
+        <v>40.000146469999997</v>
+      </c>
+      <c r="C419">
+        <v>3.9245269839999999</v>
+      </c>
+      <c r="D419" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A420" s="1">
+        <v>3.8599999999999999E-7</v>
+      </c>
+      <c r="B420">
+        <v>40.000144640000002</v>
+      </c>
+      <c r="C420">
+        <v>3.9218238109999999</v>
+      </c>
+      <c r="D420" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A421" s="1">
+        <v>3.8700000000000001E-7</v>
+      </c>
+      <c r="B421">
+        <v>40.000142830000001</v>
+      </c>
+      <c r="C421">
+        <v>3.9191549829999999</v>
+      </c>
+      <c r="D421" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A422" s="1">
+        <v>3.8799999999999998E-7</v>
+      </c>
+      <c r="B422">
+        <v>40.000141050000003</v>
+      </c>
+      <c r="C422">
+        <v>3.9165200100000002</v>
+      </c>
+      <c r="D422" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A423" s="1">
+        <v>3.89E-7</v>
+      </c>
+      <c r="B423">
+        <v>40.00013929</v>
+      </c>
+      <c r="C423">
+        <v>3.9139184060000001</v>
+      </c>
+      <c r="D423" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A424" s="1">
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="B424">
+        <v>40.000137559999999</v>
+      </c>
+      <c r="C424">
+        <v>3.9113496959999998</v>
+      </c>
+      <c r="D424" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A425" s="1">
+        <v>3.9099999999999999E-7</v>
+      </c>
+      <c r="B425">
+        <v>40.000135849999999</v>
+      </c>
+      <c r="C425">
+        <v>3.9088134079999999</v>
+      </c>
+      <c r="D425" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A426" s="1">
+        <v>3.9200000000000002E-7</v>
+      </c>
+      <c r="B426">
+        <v>40.000134160000002</v>
+      </c>
+      <c r="C426">
+        <v>3.9063090819999999</v>
+      </c>
+      <c r="D426" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A427" s="1">
+        <v>3.9299999999999999E-7</v>
+      </c>
+      <c r="B427">
+        <v>40.000132499999999</v>
+      </c>
+      <c r="C427">
+        <v>3.9038362630000001</v>
+      </c>
+      <c r="D427" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A428" s="1">
+        <v>3.9400000000000001E-7</v>
+      </c>
+      <c r="B428">
+        <v>40.000130859999999</v>
+      </c>
+      <c r="C428">
+        <v>3.9013945059999999</v>
+      </c>
+      <c r="D428" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A429" s="1">
+        <v>3.9499999999999998E-7</v>
+      </c>
+      <c r="B429">
+        <v>40.000129250000001</v>
+      </c>
+      <c r="C429">
+        <v>3.898983372</v>
+      </c>
+      <c r="D429" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A430" s="1">
+        <v>3.96E-7</v>
+      </c>
+      <c r="B430">
+        <v>40.000127659999997</v>
+      </c>
+      <c r="C430">
+        <v>3.8966024309999998</v>
+      </c>
+      <c r="D430" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A431" s="1">
+        <v>3.9700000000000002E-7</v>
+      </c>
+      <c r="B431">
+        <v>40.000126090000002</v>
+      </c>
+      <c r="C431">
+        <v>3.8942512570000001</v>
+      </c>
+      <c r="D431" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A432" s="1">
+        <v>3.9799999999999999E-7</v>
+      </c>
+      <c r="B432">
+        <v>40.000124540000002</v>
+      </c>
+      <c r="C432">
+        <v>3.891929432</v>
+      </c>
+      <c r="D432" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A433" s="1">
+        <v>3.9900000000000001E-7</v>
+      </c>
+      <c r="B433">
+        <v>40.000123010000003</v>
+      </c>
+      <c r="C433">
+        <v>3.8896365460000002</v>
+      </c>
+      <c r="D433" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A434" s="1">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="B434">
+        <v>40.000121499999999</v>
+      </c>
+      <c r="C434">
+        <v>3.8873721950000002</v>
+      </c>
+      <c r="D434" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A435" s="1">
+        <v>4.01E-7</v>
+      </c>
+      <c r="B435">
+        <v>40.000120019999997</v>
+      </c>
+      <c r="C435">
+        <v>3.885135982</v>
+      </c>
+      <c r="D435" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A436" s="1">
+        <v>4.0200000000000003E-7</v>
+      </c>
+      <c r="B436">
+        <v>40.000118550000003</v>
+      </c>
+      <c r="C436">
+        <v>3.8829275139999999</v>
+      </c>
+      <c r="D436" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A437" s="1">
+        <v>4.03E-7</v>
+      </c>
+      <c r="B437">
+        <v>40.000117099999997</v>
+      </c>
+      <c r="C437">
+        <v>3.8807464089999999</v>
+      </c>
+      <c r="D437" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A438" s="1">
+        <v>4.0400000000000002E-7</v>
+      </c>
+      <c r="B438">
+        <v>40.00011568</v>
+      </c>
+      <c r="C438">
+        <v>3.8785922859999999</v>
+      </c>
+      <c r="D438" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A439" s="1">
+        <v>4.0499999999999999E-7</v>
+      </c>
+      <c r="B439">
+        <v>40.000114269999997</v>
+      </c>
+      <c r="C439">
+        <v>3.8764647729999999</v>
+      </c>
+      <c r="D439" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A440" s="1">
+        <v>4.0600000000000001E-7</v>
+      </c>
+      <c r="B440">
+        <v>40.000112880000003</v>
+      </c>
+      <c r="C440">
+        <v>3.8743635040000002</v>
+      </c>
+      <c r="D440" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A441" s="1">
+        <v>4.0699999999999998E-7</v>
+      </c>
+      <c r="B441">
+        <v>40.000111510000004</v>
+      </c>
+      <c r="C441">
+        <v>3.8722881180000002</v>
+      </c>
+      <c r="D441" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A442" s="1">
+        <v>4.08E-7</v>
+      </c>
+      <c r="B442">
+        <v>40.000110159999998</v>
+      </c>
+      <c r="C442">
+        <v>3.8702382590000002</v>
+      </c>
+      <c r="D442" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A443" s="1">
+        <v>4.0900000000000002E-7</v>
+      </c>
+      <c r="B443">
+        <v>40.000108830000002</v>
+      </c>
+      <c r="C443">
+        <v>3.8682135799999999</v>
+      </c>
+      <c r="D443" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A444" s="1">
+        <v>4.0999999999999999E-7</v>
+      </c>
+      <c r="B444">
+        <v>40.00010752</v>
+      </c>
+      <c r="C444">
+        <v>3.8662137350000001</v>
+      </c>
+      <c r="D444" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A445" s="1">
+        <v>4.1100000000000001E-7</v>
+      </c>
+      <c r="B445">
+        <v>40.000106219999999</v>
+      </c>
+      <c r="C445">
+        <v>3.8642383859999998</v>
+      </c>
+      <c r="D445" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A446" s="1">
+        <v>4.1199999999999998E-7</v>
+      </c>
+      <c r="B446">
+        <v>40.00010494</v>
+      </c>
+      <c r="C446">
+        <v>3.8622871999999999</v>
+      </c>
+      <c r="D446" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A447" s="1">
+        <v>4.1300000000000001E-7</v>
+      </c>
+      <c r="B447">
+        <v>40.000103680000002</v>
+      </c>
+      <c r="C447">
+        <v>3.860359849</v>
+      </c>
+      <c r="D447" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A448" s="1">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="B448">
+        <v>40.000102429999998</v>
+      </c>
+      <c r="C448">
+        <v>3.8584560099999998</v>
+      </c>
+      <c r="D448" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A449" s="1">
+        <v>4.15E-7</v>
+      </c>
+      <c r="B449">
+        <v>40.000101200000003</v>
+      </c>
+      <c r="C449">
+        <v>3.8565753659999999</v>
+      </c>
+      <c r="D449" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A450" s="1">
+        <v>4.1600000000000002E-7</v>
+      </c>
+      <c r="B450">
+        <v>40.000099990000002</v>
+      </c>
+      <c r="C450">
+        <v>3.8547176040000002</v>
+      </c>
+      <c r="D450" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A451" s="1">
+        <v>4.1699999999999999E-7</v>
+      </c>
+      <c r="B451">
+        <v>40.000098800000004</v>
+      </c>
+      <c r="C451">
+        <v>3.8528824159999999</v>
+      </c>
+      <c r="D451" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A452" s="1">
+        <v>4.1800000000000001E-7</v>
+      </c>
+      <c r="B452">
+        <v>40.000097619999998</v>
+      </c>
+      <c r="C452">
+        <v>3.8510694980000002</v>
+      </c>
+      <c r="D452" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A453" s="1">
+        <v>4.1899999999999998E-7</v>
+      </c>
+      <c r="B453">
+        <v>40.000096450000001</v>
+      </c>
+      <c r="C453">
+        <v>3.8492785519999999</v>
+      </c>
+      <c r="D453" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A454" s="1">
+        <v>4.2E-7</v>
+      </c>
+      <c r="B454">
+        <v>40.000095299999998</v>
+      </c>
+      <c r="C454">
+        <v>3.8475092850000001</v>
+      </c>
+      <c r="D454" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A455" s="1">
+        <v>4.2100000000000002E-7</v>
+      </c>
+      <c r="B455">
+        <v>40.000094169999997</v>
+      </c>
+      <c r="C455">
+        <v>3.8457614059999998</v>
+      </c>
+      <c r="D455" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A456" s="1">
+        <v>4.2199999999999999E-7</v>
+      </c>
+      <c r="B456">
+        <v>40.000093049999997</v>
+      </c>
+      <c r="C456">
+        <v>3.844034631</v>
+      </c>
+      <c r="D456" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A457" s="1">
+        <v>4.2300000000000002E-7</v>
+      </c>
+      <c r="B457">
+        <v>40.000091939999997</v>
+      </c>
+      <c r="C457">
+        <v>3.842328679</v>
+      </c>
+      <c r="D457" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A458" s="1">
+        <v>4.2399999999999999E-7</v>
+      </c>
+      <c r="B458">
+        <v>40.000090849999999</v>
+      </c>
+      <c r="C458">
+        <v>3.8406432740000001</v>
+      </c>
+      <c r="D458" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A459" s="1">
+        <v>4.2500000000000001E-7</v>
+      </c>
+      <c r="B459">
+        <v>40.000089780000003</v>
+      </c>
+      <c r="C459">
+        <v>3.8389781429999998</v>
+      </c>
+      <c r="D459" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A460" s="1">
+        <v>4.2599999999999998E-7</v>
+      </c>
+      <c r="B460">
+        <v>40.00008871</v>
+      </c>
+      <c r="C460">
+        <v>3.8373330189999999</v>
+      </c>
+      <c r="D460" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A461" s="1">
+        <v>4.27E-7</v>
+      </c>
+      <c r="B461">
+        <v>40.000087659999998</v>
+      </c>
+      <c r="C461">
+        <v>3.8357076380000001</v>
+      </c>
+      <c r="D461" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A462" s="1">
+        <v>4.2800000000000002E-7</v>
+      </c>
+      <c r="B462">
+        <v>40.000086629999998</v>
+      </c>
+      <c r="C462">
+        <v>3.8341017389999998</v>
+      </c>
+      <c r="D462" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A463" s="1">
+        <v>4.2899999999999999E-7</v>
+      </c>
+      <c r="B463">
+        <v>40.000085609999999</v>
+      </c>
+      <c r="C463">
+        <v>3.832515066</v>
+      </c>
+      <c r="D463" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A464" s="1">
+        <v>4.3000000000000001E-7</v>
+      </c>
+      <c r="B464">
+        <v>40.000084600000001</v>
+      </c>
+      <c r="C464">
+        <v>3.8309473679999999</v>
+      </c>
+      <c r="D464" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A465" s="1">
+        <v>4.3099999999999998E-7</v>
+      </c>
+      <c r="B465">
+        <v>40.000083609999997</v>
+      </c>
+      <c r="C465">
+        <v>3.8293983950000001</v>
+      </c>
+      <c r="D465" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A466" s="1">
+        <v>4.32E-7</v>
+      </c>
+      <c r="B466">
+        <v>40.000082620000001</v>
+      </c>
+      <c r="C466">
+        <v>3.8278679040000001</v>
+      </c>
+      <c r="D466" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A467" s="1">
+        <v>4.3300000000000003E-7</v>
+      </c>
+      <c r="B467">
+        <v>40.000081649999998</v>
+      </c>
+      <c r="C467">
+        <v>3.8263556520000002</v>
+      </c>
+      <c r="D467" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A468" s="1">
+        <v>4.34E-7</v>
+      </c>
+      <c r="B468">
+        <v>40.000080699999998</v>
+      </c>
+      <c r="C468">
+        <v>3.8248614019999998</v>
+      </c>
+      <c r="D468" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A469" s="1">
+        <v>4.3500000000000002E-7</v>
+      </c>
+      <c r="B469">
+        <v>40.000079749999998</v>
+      </c>
+      <c r="C469">
+        <v>3.8233849210000002</v>
+      </c>
+      <c r="D469" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A470" s="1">
+        <v>4.3599999999999999E-7</v>
+      </c>
+      <c r="B470">
+        <v>40.000078819999999</v>
+      </c>
+      <c r="C470">
+        <v>3.8219259769999998</v>
+      </c>
+      <c r="D470" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A471" s="1">
+        <v>4.3700000000000001E-7</v>
+      </c>
+      <c r="B471">
+        <v>40.000077900000001</v>
+      </c>
+      <c r="C471">
+        <v>3.8204843429999999</v>
+      </c>
+      <c r="D471" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A472" s="1">
+        <v>4.3799999999999998E-7</v>
+      </c>
+      <c r="B472">
+        <v>40.000076989999997</v>
+      </c>
+      <c r="C472">
+        <v>3.8190597959999999</v>
+      </c>
+      <c r="D472" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A473" s="1">
+        <v>4.39E-7</v>
+      </c>
+      <c r="B473">
+        <v>40.00007609</v>
+      </c>
+      <c r="C473">
+        <v>3.817652115</v>
+      </c>
+      <c r="D473" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A474" s="1">
+        <v>4.4000000000000002E-7</v>
+      </c>
+      <c r="B474">
+        <v>40.000075209999999</v>
+      </c>
+      <c r="C474">
+        <v>3.8162610830000001</v>
+      </c>
+      <c r="D474" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A475" s="1">
+        <v>4.4099999999999999E-7</v>
+      </c>
+      <c r="B475">
+        <v>40.000074329999997</v>
+      </c>
+      <c r="C475">
+        <v>3.8148864850000002</v>
+      </c>
+      <c r="D475" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A476" s="1">
+        <v>4.4200000000000001E-7</v>
+      </c>
+      <c r="B476">
+        <v>40.000073469999997</v>
+      </c>
+      <c r="C476">
+        <v>3.8135281110000001</v>
+      </c>
+      <c r="D476" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A477" s="1">
+        <v>4.4299999999999998E-7</v>
+      </c>
+      <c r="B477">
+        <v>40.000072609999997</v>
+      </c>
+      <c r="C477">
+        <v>3.812185752</v>
+      </c>
+      <c r="D477" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A478" s="1">
+        <v>4.4400000000000001E-7</v>
+      </c>
+      <c r="B478">
+        <v>40.000071769999998</v>
+      </c>
+      <c r="C478">
+        <v>3.8108592039999998</v>
+      </c>
+      <c r="D478" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A479" s="1">
+        <v>4.4499999999999997E-7</v>
+      </c>
+      <c r="B479">
+        <v>40.000070940000001</v>
+      </c>
+      <c r="C479">
+        <v>3.809548264</v>
+      </c>
+      <c r="D479" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A480" s="1">
+        <v>4.46E-7</v>
+      </c>
+      <c r="B480">
+        <v>40.000070119999997</v>
+      </c>
+      <c r="C480">
+        <v>3.8082527339999999</v>
+      </c>
+      <c r="D480" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A481" s="1">
+        <v>4.4700000000000002E-7</v>
+      </c>
+      <c r="B481">
+        <v>40.000069310000001</v>
+      </c>
+      <c r="C481">
+        <v>3.8069724169999999</v>
+      </c>
+      <c r="D481" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A482" s="1">
+        <v>4.4799999999999999E-7</v>
+      </c>
+      <c r="B482">
+        <v>40.000068509999998</v>
+      </c>
+      <c r="C482">
+        <v>3.8057071200000001</v>
+      </c>
+      <c r="D482" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A483" s="1">
+        <v>4.4900000000000001E-7</v>
+      </c>
+      <c r="B483">
+        <v>40.000067719999997</v>
+      </c>
+      <c r="C483">
+        <v>3.8044566510000002</v>
+      </c>
+      <c r="D483" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A484" s="1">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="B484">
+        <v>40.000066940000004</v>
+      </c>
+      <c r="C484">
+        <v>3.8032208249999999</v>
+      </c>
+      <c r="D484" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A485" s="1">
+        <v>4.51E-7</v>
+      </c>
+      <c r="B485">
+        <v>40.000066169999997</v>
+      </c>
+      <c r="C485">
+        <v>3.8019994540000002</v>
+      </c>
+      <c r="D485" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A486" s="1">
+        <v>4.5200000000000002E-7</v>
+      </c>
+      <c r="B486">
+        <v>40.000065409999998</v>
+      </c>
+      <c r="C486">
+        <v>3.8007923560000001</v>
+      </c>
+      <c r="D486" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A487" s="1">
+        <v>4.5299999999999999E-7</v>
+      </c>
+      <c r="B487">
+        <v>40.00006466</v>
+      </c>
+      <c r="C487">
+        <v>3.799599352</v>
+      </c>
+      <c r="D487" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A488" s="1">
+        <v>4.5400000000000002E-7</v>
+      </c>
+      <c r="B488">
+        <v>40.000063910000001</v>
+      </c>
+      <c r="C488">
+        <v>3.7984202630000001</v>
+      </c>
+      <c r="D488" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A489" s="1">
+        <v>4.5499999999999998E-7</v>
+      </c>
+      <c r="B489">
+        <v>40.000063179999998</v>
+      </c>
+      <c r="C489">
+        <v>3.797254916</v>
+      </c>
+      <c r="D489" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A490" s="1">
+        <v>4.5600000000000001E-7</v>
+      </c>
+      <c r="B490">
+        <v>40.000062460000002</v>
+      </c>
+      <c r="C490">
+        <v>3.7961031369999998</v>
+      </c>
+      <c r="D490" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A491" s="1">
+        <v>4.5699999999999998E-7</v>
+      </c>
+      <c r="B491">
+        <v>40.00006174</v>
+      </c>
+      <c r="C491">
+        <v>3.7949647569999998</v>
+      </c>
+      <c r="D491" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A492" s="1">
+        <v>4.58E-7</v>
+      </c>
+      <c r="B492">
+        <v>40.000061039999999</v>
+      </c>
+      <c r="C492">
+        <v>3.7938396069999998</v>
+      </c>
+      <c r="D492" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A493" s="1">
+        <v>4.5900000000000002E-7</v>
+      </c>
+      <c r="B493">
+        <v>40.000060339999997</v>
+      </c>
+      <c r="C493">
+        <v>3.7927275229999999</v>
+      </c>
+      <c r="D493" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A494" s="1">
+        <v>4.5999999999999999E-7</v>
+      </c>
+      <c r="B494">
+        <v>40.000059649999997</v>
+      </c>
+      <c r="C494">
+        <v>3.791628341</v>
+      </c>
+      <c r="D494" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A495" s="1">
+        <v>4.6100000000000001E-7</v>
+      </c>
+      <c r="B495">
+        <v>40.000058969999998</v>
+      </c>
+      <c r="C495">
+        <v>3.7905419</v>
+      </c>
+      <c r="D495" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A496" s="1">
+        <v>4.6199999999999998E-7</v>
+      </c>
+      <c r="B496">
+        <v>40.000058299999999</v>
+      </c>
+      <c r="C496">
+        <v>3.7894680429999998</v>
+      </c>
+      <c r="D496" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A497" s="1">
+        <v>4.63E-7</v>
+      </c>
+      <c r="B497">
+        <v>40.000057630000001</v>
+      </c>
+      <c r="C497">
+        <v>3.7884066120000002</v>
+      </c>
+      <c r="D497" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A498" s="1">
+        <v>4.6400000000000003E-7</v>
+      </c>
+      <c r="B498">
+        <v>40.000056979999997</v>
+      </c>
+      <c r="C498">
+        <v>3.7873574539999999</v>
+      </c>
+      <c r="D498" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A499" s="1">
+        <v>4.6499999999999999E-7</v>
+      </c>
+      <c r="B499">
+        <v>40.00005633</v>
+      </c>
+      <c r="C499">
+        <v>3.7863204170000002</v>
+      </c>
+      <c r="D499" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A500" s="1">
+        <v>4.6600000000000002E-7</v>
+      </c>
+      <c r="B500">
+        <v>40.000055690000003</v>
+      </c>
+      <c r="C500">
+        <v>3.7852953500000002</v>
+      </c>
+      <c r="D500" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A501" s="1">
+        <v>4.6699999999999999E-7</v>
+      </c>
+      <c r="B501">
+        <v>40.000055060000001</v>
+      </c>
+      <c r="C501">
+        <v>3.7842821070000001</v>
+      </c>
+      <c r="D501" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A502" s="1">
+        <v>4.6800000000000001E-7</v>
+      </c>
+      <c r="B502">
+        <v>40.00005444</v>
+      </c>
+      <c r="C502">
+        <v>3.7832805399999998</v>
+      </c>
+      <c r="D502" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A503" s="1">
+        <v>4.6899999999999998E-7</v>
+      </c>
+      <c r="B503">
+        <v>40.000053819999998</v>
+      </c>
+      <c r="C503">
+        <v>3.7822905059999998</v>
+      </c>
+      <c r="D503" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A504" s="1">
+        <v>4.7E-7</v>
+      </c>
+      <c r="B504">
+        <v>40.000053209999997</v>
+      </c>
+      <c r="C504">
+        <v>3.7813118640000001</v>
+      </c>
+      <c r="D504" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A505" s="1">
+        <v>4.7100000000000002E-7</v>
+      </c>
+      <c r="B505">
+        <v>40.000052609999997</v>
+      </c>
+      <c r="C505">
+        <v>3.780344473</v>
+      </c>
+      <c r="D505" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A506" s="1">
+        <v>4.7199999999999999E-7</v>
+      </c>
+      <c r="B506">
+        <v>40.000052019999998</v>
+      </c>
+      <c r="C506">
+        <v>3.7793881950000001</v>
+      </c>
+      <c r="D506" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A507" s="1">
+        <v>4.7300000000000001E-7</v>
+      </c>
+      <c r="B507">
+        <v>40.000051429999999</v>
+      </c>
+      <c r="C507">
+        <v>3.778442895</v>
+      </c>
+      <c r="D507" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A508" s="1">
+        <v>4.7399999999999998E-7</v>
+      </c>
+      <c r="B508">
+        <v>40.000050850000001</v>
+      </c>
+      <c r="C508">
+        <v>3.7775084379999999</v>
+      </c>
+      <c r="D508" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A509" s="1">
+        <v>4.75E-7</v>
+      </c>
+      <c r="B509">
+        <v>40.000050280000004</v>
+      </c>
+      <c r="C509">
+        <v>3.776584691</v>
+      </c>
+      <c r="D509" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A510" s="1">
+        <v>4.7599999999999997E-7</v>
+      </c>
+      <c r="B510">
+        <v>40.000049709999999</v>
+      </c>
+      <c r="C510">
+        <v>3.7756715230000002</v>
+      </c>
+      <c r="D510" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A511" s="1">
+        <v>4.7700000000000005E-7</v>
+      </c>
+      <c r="B511">
+        <v>40.000049150000002</v>
+      </c>
+      <c r="C511">
+        <v>3.7747688070000001</v>
+      </c>
+      <c r="D511" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A512" s="1">
+        <v>4.7800000000000002E-7</v>
+      </c>
+      <c r="B512">
+        <v>40.0000486</v>
+      </c>
+      <c r="C512">
+        <v>3.7738764140000001</v>
+      </c>
+      <c r="D512" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A513" s="1">
+        <v>4.7899999999999999E-7</v>
+      </c>
+      <c r="B513">
+        <v>40.000048049999997</v>
+      </c>
+      <c r="C513">
+        <v>3.7729942190000001</v>
+      </c>
+      <c r="D513" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A514" s="1">
+        <v>4.7999999999999996E-7</v>
+      </c>
+      <c r="B514">
+        <v>40.000047520000003</v>
+      </c>
+      <c r="C514">
+        <v>3.7721220990000002</v>
+      </c>
+      <c r="D514" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A515" s="1">
+        <v>4.8100000000000003E-7</v>
+      </c>
+      <c r="B515">
+        <v>40.00004698</v>
+      </c>
+      <c r="C515">
+        <v>3.7712599299999998</v>
+      </c>
+      <c r="D515" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A516" s="1">
+        <v>4.82E-7</v>
+      </c>
+      <c r="B516">
+        <v>40.00004646</v>
+      </c>
+      <c r="C516">
+        <v>3.7704075939999999</v>
+      </c>
+      <c r="D516" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A517" s="1">
+        <v>4.8299999999999997E-7</v>
+      </c>
+      <c r="B517">
+        <v>40.00004594</v>
+      </c>
+      <c r="C517">
+        <v>3.7695649699999998</v>
+      </c>
+      <c r="D517" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A518" s="1">
+        <v>4.8400000000000005E-7</v>
+      </c>
+      <c r="B518">
+        <v>40.000045419999999</v>
+      </c>
+      <c r="C518">
+        <v>3.7687319420000001</v>
+      </c>
+      <c r="D518" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A519" s="1">
+        <v>4.8500000000000002E-7</v>
+      </c>
+      <c r="B519">
+        <v>40.000044920000001</v>
+      </c>
+      <c r="C519">
+        <v>3.7679083929999999</v>
+      </c>
+      <c r="D519" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A520" s="1">
+        <v>4.8599999999999998E-7</v>
+      </c>
+      <c r="B520">
+        <v>40.000044410000001</v>
+      </c>
+      <c r="C520">
+        <v>3.7670942090000001</v>
+      </c>
+      <c r="D520" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A521" s="1">
+        <v>4.8699999999999995E-7</v>
+      </c>
+      <c r="B521">
+        <v>40.000043920000003</v>
+      </c>
+      <c r="C521">
+        <v>3.766289279</v>
+      </c>
+      <c r="D521" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A522" s="1">
+        <v>4.8800000000000003E-7</v>
+      </c>
+      <c r="B522">
+        <v>40.000043429999998</v>
+      </c>
+      <c r="C522">
+        <v>3.7654934899999999</v>
+      </c>
+      <c r="D522" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A523" s="1">
+        <v>4.89E-7</v>
+      </c>
+      <c r="B523">
+        <v>40.000042950000001</v>
+      </c>
+      <c r="C523">
+        <v>3.7647067320000001</v>
+      </c>
+      <c r="D523" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A524" s="1">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="B524">
+        <v>40.000042469999997</v>
+      </c>
+      <c r="C524">
+        <v>3.7639288980000001</v>
+      </c>
+      <c r="D524" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A525" s="1">
+        <v>4.9100000000000004E-7</v>
+      </c>
+      <c r="B525">
+        <v>40.000042000000001</v>
+      </c>
+      <c r="C525">
+        <v>3.7631598799999999</v>
+      </c>
+      <c r="D525" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A526" s="1">
+        <v>4.9200000000000001E-7</v>
+      </c>
+      <c r="B526">
+        <v>40.000041529999997</v>
+      </c>
+      <c r="C526">
+        <v>3.7623995730000002</v>
+      </c>
+      <c r="D526" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A527" s="1">
+        <v>4.9299999999999998E-7</v>
+      </c>
+      <c r="B527">
+        <v>40.000041070000002</v>
+      </c>
+      <c r="C527">
+        <v>3.7616478729999998</v>
+      </c>
+      <c r="D527" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A528" s="1">
+        <v>4.9399999999999995E-7</v>
+      </c>
+      <c r="B528">
+        <v>40.000040609999999</v>
+      </c>
+      <c r="C528">
+        <v>3.7609046770000001</v>
+      </c>
+      <c r="D528" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A529" s="1">
+        <v>4.9500000000000003E-7</v>
+      </c>
+      <c r="B529">
+        <v>40.000040159999998</v>
+      </c>
+      <c r="C529">
+        <v>3.7601698830000001</v>
+      </c>
+      <c r="D529" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A530" s="1">
+        <v>4.9599999999999999E-7</v>
+      </c>
+      <c r="B530">
+        <v>40.000039719999997</v>
+      </c>
+      <c r="C530">
+        <v>3.7594433930000002</v>
+      </c>
+      <c r="D530" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A531" s="1">
+        <v>4.9699999999999996E-7</v>
+      </c>
+      <c r="B531">
+        <v>40.000039280000003</v>
+      </c>
+      <c r="C531">
+        <v>3.7587251049999999</v>
+      </c>
+      <c r="D531" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A532" s="1">
+        <v>4.9800000000000004E-7</v>
+      </c>
+      <c r="B532">
+        <v>40.000038840000002</v>
+      </c>
+      <c r="C532">
+        <v>3.7580149239999998</v>
+      </c>
+      <c r="D532" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A533" s="1">
+        <v>4.9900000000000001E-7</v>
+      </c>
+      <c r="B533">
+        <v>40.000038410000002</v>
+      </c>
+      <c r="C533">
+        <v>3.7573127529999999</v>
+      </c>
+      <c r="D533" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A534" s="1">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B534">
+        <v>40.000037990000003</v>
+      </c>
+      <c r="C534">
+        <v>3.7566184969999998</v>
+      </c>
+      <c r="D534" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A535" s="1">
+        <v>5.0100000000000005E-7</v>
+      </c>
+      <c r="B535">
+        <v>40.000037570000003</v>
+      </c>
+      <c r="C535">
+        <v>3.7559320619999998</v>
+      </c>
+      <c r="D535" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A536" s="1">
+        <v>5.0200000000000002E-7</v>
+      </c>
+      <c r="B536">
+        <v>40.000037149999997</v>
+      </c>
+      <c r="C536">
+        <v>3.7552533549999998</v>
+      </c>
+      <c r="D536" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A537" s="1">
+        <v>5.0299999999999999E-7</v>
+      </c>
+      <c r="B537">
+        <v>40.00003675</v>
+      </c>
+      <c r="C537">
+        <v>3.7545822860000002</v>
+      </c>
+      <c r="D537" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A538" s="1">
+        <v>5.0399999999999996E-7</v>
+      </c>
+      <c r="B538">
+        <v>40.000036340000001</v>
+      </c>
+      <c r="C538">
+        <v>3.7539187630000002</v>
+      </c>
+      <c r="D538" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A539" s="1">
+        <v>5.0500000000000004E-7</v>
+      </c>
+      <c r="B539">
+        <v>40.000035939999997</v>
+      </c>
+      <c r="C539">
+        <v>3.753262699</v>
+      </c>
+      <c r="D539" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A540" s="1">
+        <v>5.06E-7</v>
+      </c>
+      <c r="B540">
+        <v>40.000035539999999</v>
+      </c>
+      <c r="C540">
+        <v>3.7526140039999998</v>
+      </c>
+      <c r="D540" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A541" s="1">
+        <v>5.0699999999999997E-7</v>
+      </c>
+      <c r="B541">
+        <v>40.000035150000002</v>
+      </c>
+      <c r="C541">
+        <v>3.751972592</v>
+      </c>
+      <c r="D541" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A542" s="1">
+        <v>5.0800000000000005E-7</v>
+      </c>
+      <c r="B542">
+        <v>40.000034769999999</v>
+      </c>
+      <c r="C542">
+        <v>3.7513383779999998</v>
+      </c>
+      <c r="D542" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A543" s="1">
+        <v>5.0900000000000002E-7</v>
+      </c>
+      <c r="B543">
+        <v>40.000034390000003</v>
+      </c>
+      <c r="C543">
+        <v>3.7507112770000002</v>
+      </c>
+      <c r="D543" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A544" s="1">
+        <v>5.0999999999999999E-7</v>
+      </c>
+      <c r="B544">
+        <v>40.00003401</v>
+      </c>
+      <c r="C544">
+        <v>3.7500912049999999</v>
+      </c>
+      <c r="D544" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A545" s="1">
+        <v>5.1099999999999996E-7</v>
+      </c>
+      <c r="B545">
+        <v>40.000033639999998</v>
+      </c>
+      <c r="C545">
+        <v>3.7494780799999998</v>
+      </c>
+      <c r="D545" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A546" s="1">
+        <v>5.1200000000000003E-7</v>
+      </c>
+      <c r="B546">
+        <v>40.000033270000003</v>
+      </c>
+      <c r="C546">
+        <v>3.7488718200000002</v>
+      </c>
+      <c r="D546" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A547" s="1">
+        <v>5.13E-7</v>
+      </c>
+      <c r="B547">
+        <v>40.000032900000001</v>
+      </c>
+      <c r="C547">
+        <v>3.7482723450000002</v>
+      </c>
+      <c r="D547" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A548" s="1">
+        <v>5.1399999999999997E-7</v>
+      </c>
+      <c r="B548">
+        <v>40.000032539999999</v>
+      </c>
+      <c r="C548">
+        <v>3.7476795759999999</v>
+      </c>
+      <c r="D548" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A549" s="1">
+        <v>5.1500000000000005E-7</v>
+      </c>
+      <c r="B549">
+        <v>40.000032189999999</v>
+      </c>
+      <c r="C549">
+        <v>3.7470934339999999</v>
+      </c>
+      <c r="D549" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A550" s="1">
+        <v>5.1600000000000001E-7</v>
+      </c>
+      <c r="B550">
+        <v>40.000031839999998</v>
+      </c>
+      <c r="C550">
+        <v>3.7465138420000001</v>
+      </c>
+      <c r="D550" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A551" s="1">
+        <v>5.1699999999999998E-7</v>
+      </c>
+      <c r="B551">
+        <v>40.000031489999998</v>
+      </c>
+      <c r="C551">
+        <v>3.745940724</v>
+      </c>
+      <c r="D551" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A552" s="1">
+        <v>5.1799999999999995E-7</v>
+      </c>
+      <c r="B552">
+        <v>40.000031149999998</v>
+      </c>
+      <c r="C552">
+        <v>3.7453740039999999</v>
+      </c>
+      <c r="D552" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A553" s="1">
+        <v>5.1900000000000003E-7</v>
+      </c>
+      <c r="B553">
+        <v>40.000030809999998</v>
+      </c>
+      <c r="C553">
+        <v>3.7448136070000002</v>
+      </c>
+      <c r="D553" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A554" s="1">
+        <v>5.2E-7</v>
+      </c>
+      <c r="B554">
+        <v>40.000030469999999</v>
+      </c>
+      <c r="C554">
+        <v>3.7442594599999999</v>
+      </c>
+      <c r="D554" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A555" s="1">
+        <v>5.2099999999999997E-7</v>
+      </c>
+      <c r="B555">
+        <v>40.00003014</v>
+      </c>
+      <c r="C555">
+        <v>3.7437114899999999</v>
+      </c>
+      <c r="D555" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A556" s="1">
+        <v>5.2200000000000004E-7</v>
+      </c>
+      <c r="B556">
+        <v>40.000029810000001</v>
+      </c>
+      <c r="C556">
+        <v>3.7431696259999998</v>
+      </c>
+      <c r="D556" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A557" s="1">
+        <v>5.2300000000000001E-7</v>
+      </c>
+      <c r="B557">
+        <v>40.000029490000003</v>
+      </c>
+      <c r="C557">
+        <v>3.7426337969999999</v>
+      </c>
+      <c r="D557" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A558" s="1">
+        <v>5.2399999999999998E-7</v>
+      </c>
+      <c r="B558">
+        <v>40.000029169999998</v>
+      </c>
+      <c r="C558">
+        <v>3.742103932</v>
+      </c>
+      <c r="D558" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A559" s="1">
+        <v>5.2499999999999995E-7</v>
+      </c>
+      <c r="B559">
+        <v>40.00002885</v>
+      </c>
+      <c r="C559">
+        <v>3.741579963</v>
+      </c>
+      <c r="D559" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A560" s="1">
+        <v>5.2600000000000002E-7</v>
+      </c>
+      <c r="B560">
+        <v>40.000028540000002</v>
+      </c>
+      <c r="C560">
+        <v>3.7410618210000002</v>
+      </c>
+      <c r="D560" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A561" s="1">
+        <v>5.2699999999999999E-7</v>
+      </c>
+      <c r="B561">
+        <v>40.000028229999998</v>
+      </c>
+      <c r="C561">
+        <v>3.7405494400000001</v>
+      </c>
+      <c r="D561" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A562" s="1">
+        <v>5.2799999999999996E-7</v>
+      </c>
+      <c r="B562">
+        <v>40.000027920000001</v>
+      </c>
+      <c r="C562">
+        <v>3.7400427509999998</v>
+      </c>
+      <c r="D562" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A563" s="1">
+        <v>5.2900000000000004E-7</v>
+      </c>
+      <c r="B563">
+        <v>40.000027619999997</v>
+      </c>
+      <c r="C563">
+        <v>3.7395416909999999</v>
+      </c>
+      <c r="D563" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A564" s="1">
+        <v>5.3000000000000001E-7</v>
+      </c>
+      <c r="B564">
+        <v>40.000027320000001</v>
+      </c>
+      <c r="C564">
+        <v>3.7390461930000001</v>
+      </c>
+      <c r="D564" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A565" s="1">
+        <v>5.3099999999999998E-7</v>
+      </c>
+      <c r="B565">
+        <v>40.000027019999997</v>
+      </c>
+      <c r="C565">
+        <v>3.738556193</v>
+      </c>
+      <c r="D565" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A566" s="1">
+        <v>5.3200000000000005E-7</v>
+      </c>
+      <c r="B566">
+        <v>40.000026730000002</v>
+      </c>
+      <c r="C566">
+        <v>3.7380716289999998</v>
+      </c>
+      <c r="D566" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A567" s="1">
+        <v>5.3300000000000002E-7</v>
+      </c>
+      <c r="B567">
+        <v>40.000026439999999</v>
+      </c>
+      <c r="C567">
+        <v>3.7375924380000001</v>
+      </c>
+      <c r="D567" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A568" s="1">
+        <v>5.3399999999999999E-7</v>
+      </c>
+      <c r="B568">
+        <v>40.000026159999997</v>
+      </c>
+      <c r="C568">
+        <v>3.7371185570000001</v>
+      </c>
+      <c r="D568" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A569" s="1">
+        <v>5.3499999999999996E-7</v>
+      </c>
+      <c r="B569">
+        <v>40.000025880000003</v>
+      </c>
+      <c r="C569">
+        <v>3.7366499270000002</v>
+      </c>
+      <c r="D569" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A570" s="1">
+        <v>5.3600000000000004E-7</v>
+      </c>
+      <c r="B570">
+        <v>40.000025600000001</v>
+      </c>
+      <c r="C570">
+        <v>3.7361864859999998</v>
+      </c>
+      <c r="D570" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A571" s="1">
+        <v>5.37E-7</v>
+      </c>
+      <c r="B571">
+        <v>40.000025319999999</v>
+      </c>
+      <c r="C571">
+        <v>3.7357281750000002</v>
+      </c>
+      <c r="D571" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A572" s="1">
+        <v>5.3799999999999997E-7</v>
+      </c>
+      <c r="B572">
+        <v>40.000025049999998</v>
+      </c>
+      <c r="C572">
+        <v>3.7352749350000001</v>
+      </c>
+      <c r="D572" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A573" s="1">
+        <v>5.3900000000000005E-7</v>
+      </c>
+      <c r="B573">
+        <v>40.000024779999997</v>
+      </c>
+      <c r="C573">
+        <v>3.734826709</v>
+      </c>
+      <c r="D573" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A574" s="1">
+        <v>5.4000000000000002E-7</v>
+      </c>
+      <c r="B574">
+        <v>40.000024510000003</v>
+      </c>
+      <c r="C574">
+        <v>3.7343834380000001</v>
+      </c>
+      <c r="D574" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A575" s="1">
+        <v>5.4099999999999999E-7</v>
+      </c>
+      <c r="B575">
+        <v>40.000024250000003</v>
+      </c>
+      <c r="C575">
+        <v>3.733945066</v>
+      </c>
+      <c r="D575" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A576" s="1">
+        <v>5.4199999999999996E-7</v>
+      </c>
+      <c r="B576">
+        <v>40.000023990000003</v>
+      </c>
+      <c r="C576">
+        <v>3.733511537</v>
+      </c>
+      <c r="D576" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A577" s="1">
+        <v>5.4300000000000003E-7</v>
+      </c>
+      <c r="B577">
+        <v>40.000023730000002</v>
+      </c>
+      <c r="C577">
+        <v>3.7330827960000001</v>
+      </c>
+      <c r="D577" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A578" s="1">
+        <v>5.44E-7</v>
+      </c>
+      <c r="B578">
+        <v>40.000023480000003</v>
+      </c>
+      <c r="C578">
+        <v>3.7326587870000001</v>
+      </c>
+      <c r="D578" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A579" s="1">
+        <v>5.4499999999999997E-7</v>
+      </c>
+      <c r="B579">
+        <v>40.000023220000003</v>
+      </c>
+      <c r="C579">
+        <v>3.732239458</v>
+      </c>
+      <c r="D579" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A580" s="1">
+        <v>5.4600000000000005E-7</v>
+      </c>
+      <c r="B580">
+        <v>40.000022979999997</v>
+      </c>
+      <c r="C580">
+        <v>3.7318247549999999</v>
+      </c>
+      <c r="D580" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A581" s="1">
+        <v>5.4700000000000001E-7</v>
+      </c>
+      <c r="B581">
+        <v>40.000022729999998</v>
+      </c>
+      <c r="C581">
+        <v>3.7314146240000001</v>
+      </c>
+      <c r="D581" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A582" s="1">
+        <v>5.4799999999999998E-7</v>
+      </c>
+      <c r="B582">
+        <v>40.000022489999999</v>
+      </c>
+      <c r="C582">
+        <v>3.7310090140000001</v>
+      </c>
+      <c r="D582" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A583" s="1">
+        <v>5.4899999999999995E-7</v>
+      </c>
+      <c r="B583">
+        <v>40.000022250000001</v>
+      </c>
+      <c r="C583">
+        <v>3.7306078739999999</v>
+      </c>
+      <c r="D583" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A584" s="1">
+        <v>5.5000000000000003E-7</v>
+      </c>
+      <c r="B584">
+        <v>40.000022010000002</v>
+      </c>
+      <c r="C584">
+        <v>3.7302111529999999</v>
+      </c>
+      <c r="D584" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A585" s="1">
+        <v>5.51E-7</v>
+      </c>
+      <c r="B585">
+        <v>40.000021769999996</v>
+      </c>
+      <c r="C585">
+        <v>3.7298187999999999</v>
+      </c>
+      <c r="D585" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A586" s="1">
+        <v>5.5199999999999997E-7</v>
+      </c>
+      <c r="B586">
+        <v>40.000021539999999</v>
+      </c>
+      <c r="C586">
+        <v>3.729430765</v>
+      </c>
+      <c r="D586" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A587" s="1">
+        <v>5.5300000000000004E-7</v>
+      </c>
+      <c r="B587">
+        <v>40.000021310000001</v>
+      </c>
+      <c r="C587">
+        <v>3.7290470010000001</v>
+      </c>
+      <c r="D587" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A588" s="1">
+        <v>5.5400000000000001E-7</v>
+      </c>
+      <c r="B588">
+        <v>40.000021080000003</v>
+      </c>
+      <c r="C588">
+        <v>3.7286674579999999</v>
+      </c>
+      <c r="D588" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A589" s="1">
+        <v>5.5499999999999998E-7</v>
+      </c>
+      <c r="B589">
+        <v>40.000020859999999</v>
+      </c>
+      <c r="C589">
+        <v>3.728292089</v>
+      </c>
+      <c r="D589" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A590" s="1">
+        <v>5.5599999999999995E-7</v>
+      </c>
+      <c r="B590">
+        <v>40.000020640000002</v>
+      </c>
+      <c r="C590">
+        <v>3.7279208449999999</v>
+      </c>
+      <c r="D590" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A591" s="1">
+        <v>5.5700000000000002E-7</v>
+      </c>
+      <c r="B591">
+        <v>40.000020419999998</v>
+      </c>
+      <c r="C591">
+        <v>3.7275536819999999</v>
+      </c>
+      <c r="D591" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A592" s="1">
+        <v>5.5799999999999999E-7</v>
+      </c>
+      <c r="B592">
+        <v>40.000020200000002</v>
+      </c>
+      <c r="C592">
+        <v>3.7271905520000002</v>
+      </c>
+      <c r="D592" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A593" s="1">
+        <v>5.5899999999999996E-7</v>
+      </c>
+      <c r="B593">
+        <v>40.000019989999998</v>
+      </c>
+      <c r="C593">
+        <v>3.7268314089999999</v>
+      </c>
+      <c r="D593" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A594" s="1">
+        <v>5.6000000000000004E-7</v>
+      </c>
+      <c r="B594">
+        <v>40.000019770000002</v>
+      </c>
+      <c r="C594">
+        <v>3.72647621</v>
+      </c>
+      <c r="D594" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A595" s="1">
+        <v>5.6100000000000001E-7</v>
+      </c>
+      <c r="B595">
+        <v>40.000019559999998</v>
+      </c>
+      <c r="C595">
+        <v>3.7261249090000002</v>
+      </c>
+      <c r="D595" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A596" s="1">
+        <v>5.6199999999999998E-7</v>
+      </c>
+      <c r="B596">
+        <v>40.000019360000003</v>
+      </c>
+      <c r="C596">
+        <v>3.7257774619999999</v>
+      </c>
+      <c r="D596" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A597" s="1">
+        <v>5.6300000000000005E-7</v>
+      </c>
+      <c r="B597">
+        <v>40.00001915</v>
+      </c>
+      <c r="C597">
+        <v>3.7254338250000001</v>
+      </c>
+      <c r="D597" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A598" s="1">
+        <v>5.6400000000000002E-7</v>
+      </c>
+      <c r="B598">
+        <v>40.000018949999998</v>
+      </c>
+      <c r="C598">
+        <v>3.7250939569999999</v>
+      </c>
+      <c r="D598" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A599" s="1">
+        <v>5.6499999999999999E-7</v>
+      </c>
+      <c r="B599">
+        <v>40.000018750000002</v>
+      </c>
+      <c r="C599">
+        <v>3.7247578140000002</v>
+      </c>
+      <c r="D599" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A600" s="1">
+        <v>5.6599999999999996E-7</v>
+      </c>
+      <c r="B600">
+        <v>40.00001855</v>
+      </c>
+      <c r="C600">
+        <v>3.7244253550000002</v>
+      </c>
+      <c r="D600" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A601" s="1">
+        <v>5.6700000000000003E-7</v>
+      </c>
+      <c r="B601">
+        <v>40.000018349999998</v>
+      </c>
+      <c r="C601">
+        <v>3.7240965369999999</v>
+      </c>
+      <c r="D601" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A602" s="1">
+        <v>5.68E-7</v>
+      </c>
+      <c r="B602">
+        <v>40.000018160000003</v>
+      </c>
+      <c r="C602">
+        <v>3.7237713210000001</v>
+      </c>
+      <c r="D602" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A603" s="1">
+        <v>5.6899999999999997E-7</v>
+      </c>
+      <c r="B603">
+        <v>40.000017970000002</v>
+      </c>
+      <c r="C603">
+        <v>3.723449665</v>
+      </c>
+      <c r="D603" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A604" s="1">
+        <v>5.7000000000000005E-7</v>
+      </c>
+      <c r="B604">
+        <v>40.00001778</v>
+      </c>
+      <c r="C604">
+        <v>3.7231315299999999</v>
+      </c>
+      <c r="D604" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A605" s="1">
+        <v>5.7100000000000002E-7</v>
+      </c>
+      <c r="B605">
+        <v>40.000017589999999</v>
+      </c>
+      <c r="C605">
+        <v>3.722816876</v>
+      </c>
+      <c r="D605" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A606" s="1">
+        <v>5.7199999999999999E-7</v>
+      </c>
+      <c r="B606">
+        <v>40.000017399999997</v>
+      </c>
+      <c r="C606">
+        <v>3.7225056639999998</v>
+      </c>
+      <c r="D606" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A607" s="1">
+        <v>5.7299999999999996E-7</v>
+      </c>
+      <c r="B607">
+        <v>40.000017219999997</v>
+      </c>
+      <c r="C607">
+        <v>3.7221978550000001</v>
+      </c>
+      <c r="D607" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A608" s="1">
+        <v>5.7400000000000003E-7</v>
+      </c>
+      <c r="B608">
+        <v>40.000017040000003</v>
+      </c>
+      <c r="C608">
+        <v>3.7218934109999999</v>
+      </c>
+      <c r="D608" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A609" s="1">
+        <v>5.75E-7</v>
+      </c>
+      <c r="B609">
+        <v>40.000016860000002</v>
+      </c>
+      <c r="C609">
+        <v>3.7215922959999999</v>
+      </c>
+      <c r="D609" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A610" s="1">
+        <v>5.7599999999999997E-7</v>
+      </c>
+      <c r="B610">
+        <v>40.000016680000002</v>
+      </c>
+      <c r="C610">
+        <v>3.7212944700000001</v>
+      </c>
+      <c r="D610" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A611" s="1">
+        <v>5.7700000000000004E-7</v>
+      </c>
+      <c r="B611">
+        <v>40.000016510000002</v>
+      </c>
+      <c r="C611">
+        <v>3.7209998980000001</v>
+      </c>
+      <c r="D611" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A612" s="1">
+        <v>5.7800000000000001E-7</v>
+      </c>
+      <c r="B612">
+        <v>40.000016330000001</v>
+      </c>
+      <c r="C612">
+        <v>3.7207085420000001</v>
+      </c>
+      <c r="D612" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A613" s="1">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="B613">
+        <v>40.000016160000001</v>
+      </c>
+      <c r="C613">
+        <v>3.7204203680000001</v>
+      </c>
+      <c r="D613" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A614" s="1">
+        <v>5.7999999999999995E-7</v>
+      </c>
+      <c r="B614">
+        <v>40.000015990000001</v>
+      </c>
+      <c r="C614">
+        <v>3.7201353400000001</v>
+      </c>
+      <c r="D614" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A615" s="1">
+        <v>5.8100000000000003E-7</v>
+      </c>
+      <c r="B615">
+        <v>40.000015830000002</v>
+      </c>
+      <c r="C615">
+        <v>3.7198534209999998</v>
+      </c>
+      <c r="D615" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A616" s="1">
+        <v>5.82E-7</v>
+      </c>
+      <c r="B616">
+        <v>40.000015660000003</v>
+      </c>
+      <c r="C616">
+        <v>3.7195745790000001</v>
+      </c>
+      <c r="D616" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A617" s="1">
+        <v>5.8299999999999997E-7</v>
+      </c>
+      <c r="B617">
+        <v>40.000015500000003</v>
+      </c>
+      <c r="C617">
+        <v>3.7192987780000002</v>
+      </c>
+      <c r="D617" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A618" s="1">
+        <v>5.8400000000000004E-7</v>
+      </c>
+      <c r="B618">
+        <v>40.000015329999997</v>
+      </c>
+      <c r="C618">
+        <v>3.719025984</v>
+      </c>
+      <c r="D618" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A619" s="1">
+        <v>5.8500000000000001E-7</v>
+      </c>
+      <c r="B619">
+        <v>40.000015169999998</v>
+      </c>
+      <c r="C619">
+        <v>3.7187561640000002</v>
+      </c>
+      <c r="D619" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A620" s="1">
+        <v>5.8599999999999998E-7</v>
+      </c>
+      <c r="B620">
+        <v>40.000015019999999</v>
+      </c>
+      <c r="C620">
+        <v>3.718489285</v>
+      </c>
+      <c r="D620" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A621" s="1">
+        <v>5.8699999999999995E-7</v>
+      </c>
+      <c r="B621">
+        <v>40.00001486</v>
+      </c>
+      <c r="C621">
+        <v>3.7182253140000001</v>
+      </c>
+      <c r="D621" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A622" s="1">
+        <v>5.8800000000000002E-7</v>
+      </c>
+      <c r="B622">
+        <v>40.000014700000001</v>
+      </c>
+      <c r="C622">
+        <v>3.7179642190000002</v>
+      </c>
+      <c r="D622" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A623" s="1">
+        <v>5.8899999999999999E-7</v>
+      </c>
+      <c r="B623">
+        <v>40.000014550000003</v>
+      </c>
+      <c r="C623">
+        <v>3.7177059670000001</v>
+      </c>
+      <c r="D623" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A624" s="1">
+        <v>5.8999999999999996E-7</v>
+      </c>
+      <c r="B624">
+        <v>40.000014399999998</v>
+      </c>
+      <c r="C624">
+        <v>3.717450527</v>
+      </c>
+      <c r="D624" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A625" s="1">
+        <v>5.9100000000000004E-7</v>
+      </c>
+      <c r="B625">
+        <v>40.00001425</v>
+      </c>
+      <c r="C625">
+        <v>3.717197868</v>
+      </c>
+      <c r="D625" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A626" s="1">
+        <v>5.9200000000000001E-7</v>
+      </c>
+      <c r="B626">
+        <v>40.000014100000001</v>
+      </c>
+      <c r="C626">
+        <v>3.7169479590000001</v>
+      </c>
+      <c r="D626" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A627" s="1">
+        <v>5.9299999999999998E-7</v>
+      </c>
+      <c r="B627">
+        <v>40.000013950000003</v>
+      </c>
+      <c r="C627">
+        <v>3.716700769</v>
+      </c>
+      <c r="D627" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A628" s="1">
+        <v>5.9400000000000005E-7</v>
+      </c>
+      <c r="B628">
+        <v>40.000013809999999</v>
+      </c>
+      <c r="C628">
+        <v>3.716456268</v>
+      </c>
+      <c r="D628" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A629" s="1">
+        <v>5.9500000000000002E-7</v>
+      </c>
+      <c r="B629">
+        <v>40.000013670000001</v>
+      </c>
+      <c r="C629">
+        <v>3.7162144270000002</v>
+      </c>
+      <c r="D629" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A630" s="1">
+        <v>5.9599999999999999E-7</v>
+      </c>
+      <c r="B630">
+        <v>40.000013520000003</v>
+      </c>
+      <c r="C630">
+        <v>3.7159752149999998</v>
+      </c>
+      <c r="D630" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A631" s="1">
+        <v>5.9699999999999996E-7</v>
+      </c>
+      <c r="B631">
+        <v>40.000013379999999</v>
+      </c>
+      <c r="C631">
+        <v>3.7157386039999998</v>
+      </c>
+      <c r="D631" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A632" s="1">
+        <v>5.9800000000000003E-7</v>
+      </c>
+      <c r="B632">
+        <v>40.000013250000002</v>
+      </c>
+      <c r="C632">
+        <v>3.7155045640000002</v>
+      </c>
+      <c r="D632" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A633" s="1">
+        <v>5.99E-7</v>
+      </c>
+      <c r="B633">
+        <v>40.000013109999998</v>
+      </c>
+      <c r="C633">
+        <v>3.7152730680000001</v>
+      </c>
+      <c r="D633" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A634" s="1">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="B634">
+        <v>40.000013010000004</v>
+      </c>
+      <c r="C634">
+        <v>3.715089683</v>
+      </c>
+      <c r="D634" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>